--- a/venduto 2024.xlsx
+++ b/venduto 2024.xlsx
@@ -8,19 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edoardo\Documents\fatturazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5685A28E-24AD-43D8-A836-944D0FC32729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F942B6-7539-48C2-B98F-81E3DB3B9661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GENNAIO 2024" sheetId="47" r:id="rId1"/>
-    <sheet name="Foglio1" sheetId="53" r:id="rId2"/>
-    <sheet name="Foglio4" sheetId="51" r:id="rId3"/>
-    <sheet name="Testata" sheetId="49" r:id="rId4"/>
-    <sheet name="Corpo" sheetId="48" r:id="rId5"/>
-    <sheet name="Corpo (2)" sheetId="50" r:id="rId6"/>
-    <sheet name="Puntivendita" sheetId="52" r:id="rId7"/>
-    <sheet name="Formati" sheetId="54" r:id="rId8"/>
+    <sheet name="Testata" sheetId="49" r:id="rId2"/>
+    <sheet name="Corpo" sheetId="48" r:id="rId3"/>
+    <sheet name="Corpo (2)" sheetId="50" r:id="rId4"/>
+    <sheet name="Puntivendita" sheetId="52" r:id="rId5"/>
+    <sheet name="Formati" sheetId="54" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'GENNAIO 2024'!$A$1:$AB$156</definedName>
@@ -66,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="189">
   <si>
     <t>n. buono</t>
   </si>
@@ -209,9 +207,6 @@
     <t>D'AMICIS</t>
   </si>
   <si>
-    <t>008 cav. Int</t>
-  </si>
-  <si>
     <t>MEGAGEST MEGA MARTINA F</t>
   </si>
   <si>
@@ -231,9 +226,6 @@
   </si>
   <si>
     <t>EMMEDUE</t>
-  </si>
-  <si>
-    <t>124     FUSILLI</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -428,48 +420,6 @@
     <t>col lunghezza</t>
   </si>
   <si>
-    <t>007  MAR.INT</t>
-  </si>
-  <si>
-    <t>027 ORECCHIETTE_C.RAPA</t>
-  </si>
-  <si>
-    <t>005  OREC_INT</t>
-  </si>
-  <si>
-    <t>006 MACC_INT</t>
-  </si>
-  <si>
-    <t>030   ORECCHIETTE_SECCHE</t>
-  </si>
-  <si>
-    <t>032   CAVATELLI_SECCHE</t>
-  </si>
-  <si>
-    <t>034   TROCCOLI_SECCHE</t>
-  </si>
-  <si>
-    <t>035 PAPP_SEMOLA_SECCHE</t>
-  </si>
-  <si>
-    <t>036 TAGLIATELLE_SEMOLA_SECCHE</t>
-  </si>
-  <si>
-    <t>39 MARITATI_INT_SECCHE</t>
-  </si>
-  <si>
-    <t>042   PAPP_UOVO_SECCHE</t>
-  </si>
-  <si>
-    <t>04 orecch.int_SECCHE</t>
-  </si>
-  <si>
-    <t>0026 ORECCHIETTE_ARSO_SECCHE</t>
-  </si>
-  <si>
-    <t>125     FUSILLI_INT</t>
-  </si>
-  <si>
     <t>0027 ORECCHIETTE C.RAPA</t>
   </si>
   <si>
@@ -560,19 +510,10 @@
     <t xml:space="preserve"> 8032894741051</t>
   </si>
   <si>
-    <t xml:space="preserve">ORECCHIETTE FRESCHE INTEGRALI </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 8032894741068</t>
   </si>
   <si>
-    <t xml:space="preserve">MACCHERONI FRESCHI INTEGRALI </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 8032894741075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARITATI FRESCHI INTEGRALI </t>
   </si>
   <si>
     <t xml:space="preserve"> 8032894741099</t>
@@ -611,9 +552,6 @@
     <t>grammi</t>
   </si>
   <si>
-    <t>lprezzo</t>
-  </si>
-  <si>
     <t>sconto</t>
   </si>
   <si>
@@ -627,9 +565,6 @@
   </si>
   <si>
     <t>0032</t>
-  </si>
-  <si>
-    <t>039</t>
   </si>
   <si>
     <t>0101</t>
@@ -681,6 +616,21 @@
   </si>
   <si>
     <t>FUSILLI FRESCHI INTEGRALI</t>
+  </si>
+  <si>
+    <t>0039</t>
+  </si>
+  <si>
+    <t>prezzo</t>
+  </si>
+  <si>
+    <t>ORECCHIETTE FRESCHE INTEGRALI</t>
+  </si>
+  <si>
+    <t>MACCHERONI FRESCHI INTEGRALI</t>
+  </si>
+  <si>
+    <t>MARITATI FRESCHI INTEGRALI</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1090,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1566,12 +1516,7 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1581,6 +1526,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="21" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Migliaia" xfId="1" builtinId="3"/>
@@ -1663,7 +1614,7 @@
     <tableColumn id="1" xr3:uid="{73FFD1E5-2614-4127-B002-94701FD92722}" name="ean" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{1E2FCAEB-019D-4AA0-BD7F-8D5C7B1BF089}" name="articolo"/>
     <tableColumn id="4" xr3:uid="{D2FBDD2A-F140-416C-AAAF-2085E1B78CF9}" name="grammi" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{E3638016-56B9-4565-9234-D2AA413C5951}" name="lprezzo" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{E3638016-56B9-4565-9234-D2AA413C5951}" name="prezzo" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{6A5113FD-B9B8-48DC-BF45-C93B806CC44A}" name="sconto" dataDxfId="1"/>
     <tableColumn id="7" xr3:uid="{68BF6AF6-36C5-4EED-A235-162D48752F0E}" name="iva" dataDxfId="0"/>
   </tableColumns>
@@ -1936,9 +1887,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{168708C7-F2E4-411C-A140-48A329066637}">
   <dimension ref="A1:AF1106"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q5" sqref="Q5"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1975,73 +1926,73 @@
         <v>2</v>
       </c>
       <c r="D1" s="55" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="E1" s="56" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="F1" s="57" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="G1" s="58" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="H1" s="59" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="I1" s="60" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="J1" s="65" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="K1" s="100" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="L1" s="61" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="M1" s="62" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="N1" s="63" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="O1" s="95" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="P1" s="64" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="Q1" s="64" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="R1" s="64" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="S1" s="64" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="T1" s="64" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="U1" s="64" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="V1" s="64" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="W1" s="64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X1" s="64" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Y1" s="64" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="Z1" s="64" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="AA1" s="4" t="s">
         <v>32</v>
@@ -2059,7 +2010,7 @@
         <v>45293</v>
       </c>
       <c r="C2" s="82" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2" s="9">
         <v>15</v>
@@ -2483,7 +2434,7 @@
         <v>45293</v>
       </c>
       <c r="C10" s="91" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="9">
         <v>25</v>
@@ -2693,7 +2644,7 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="108" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B14" s="7">
         <v>45295</v>
@@ -2747,7 +2698,7 @@
         <v>45295</v>
       </c>
       <c r="C15" s="91" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="48"/>
@@ -3001,7 +2952,7 @@
         <v>45296</v>
       </c>
       <c r="C20" s="91" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="9">
         <v>60</v>
@@ -3172,7 +3123,7 @@
         <v>45296</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="48"/>
@@ -3264,7 +3215,7 @@
         <v>45300</v>
       </c>
       <c r="C25" s="82" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D25" s="9">
         <v>30</v>
@@ -3529,7 +3480,7 @@
         <v>45300</v>
       </c>
       <c r="C30" s="91" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="48"/>
@@ -4055,7 +4006,7 @@
         <v>45302</v>
       </c>
       <c r="C40" s="91" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D40" s="9">
         <v>40</v>
@@ -4163,7 +4114,7 @@
         <v>45303</v>
       </c>
       <c r="C42" s="82" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D42" s="9">
         <v>30</v>
@@ -4532,7 +4483,7 @@
         <v>45307</v>
       </c>
       <c r="C49" s="91" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D49" s="9">
         <v>25</v>
@@ -4907,7 +4858,7 @@
         <v>45307</v>
       </c>
       <c r="C56" s="107" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D56" s="9">
         <v>40</v>
@@ -5070,7 +5021,7 @@
         <v>45308</v>
       </c>
       <c r="C59" s="81" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D59" s="9">
         <v>9</v>
@@ -5119,7 +5070,7 @@
         <v>45309</v>
       </c>
       <c r="C60" s="91" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D60" s="9">
         <v>40</v>
@@ -5406,7 +5357,7 @@
         <v>45310</v>
       </c>
       <c r="C65" s="91" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D65" s="9">
         <v>40</v>
@@ -5787,7 +5738,7 @@
         <v>45314</v>
       </c>
       <c r="C72" s="91" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D72" s="9">
         <v>30</v>
@@ -6123,7 +6074,7 @@
         <v>45314</v>
       </c>
       <c r="C78" s="107" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="48"/>
@@ -6470,7 +6421,7 @@
         <v>45316</v>
       </c>
       <c r="C85" s="107" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D85" s="9">
         <v>20</v>
@@ -6629,7 +6580,7 @@
         <v>45317</v>
       </c>
       <c r="C88" s="107" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D88" s="9">
         <v>38</v>
@@ -6794,7 +6745,7 @@
         <v>45317</v>
       </c>
       <c r="C91" s="82" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="48"/>
@@ -7016,7 +6967,7 @@
         <v>45318</v>
       </c>
       <c r="C95" s="82" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D95" s="9">
         <v>70</v>
@@ -7660,7 +7611,7 @@
         <v>45298</v>
       </c>
       <c r="C107" s="82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D107" s="9">
         <v>50</v>
@@ -7715,7 +7666,7 @@
         <v>45308</v>
       </c>
       <c r="C108" s="82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D108" s="9">
         <v>60</v>
@@ -9612,7 +9563,7 @@
       <c r="A159" s="26"/>
       <c r="B159" s="27"/>
       <c r="C159" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D159" s="28">
         <f t="shared" ref="D159:AB159" si="9">SUM(D2:D158)</f>
@@ -9808,7 +9759,7 @@
       <c r="A162" s="36">
         <v>1</v>
       </c>
-      <c r="B162" s="157" t="s">
+      <c r="B162" s="154" t="s">
         <v>37</v>
       </c>
       <c r="C162" s="83" t="s">
@@ -9924,7 +9875,7 @@
       <c r="A163" s="36">
         <v>2</v>
       </c>
-      <c r="B163" s="157"/>
+      <c r="B163" s="154"/>
       <c r="C163" s="83" t="s">
         <v>24</v>
       </c>
@@ -10037,7 +9988,7 @@
       <c r="A164" s="36">
         <v>3</v>
       </c>
-      <c r="B164" s="157"/>
+      <c r="B164" s="154"/>
       <c r="C164" s="83" t="s">
         <v>25</v>
       </c>
@@ -10150,7 +10101,7 @@
       <c r="A165" s="36">
         <v>4</v>
       </c>
-      <c r="B165" s="157"/>
+      <c r="B165" s="154"/>
       <c r="C165" s="83" t="s">
         <v>27</v>
       </c>
@@ -10263,7 +10214,7 @@
       <c r="A166" s="36">
         <v>5</v>
       </c>
-      <c r="B166" s="157"/>
+      <c r="B166" s="154"/>
       <c r="C166" s="83" t="s">
         <v>41</v>
       </c>
@@ -10376,7 +10327,7 @@
       <c r="A167" s="36">
         <v>6</v>
       </c>
-      <c r="B167" s="157"/>
+      <c r="B167" s="154"/>
       <c r="C167" s="83" t="s">
         <v>14</v>
       </c>
@@ -10489,7 +10440,7 @@
       <c r="A168" s="36">
         <v>7</v>
       </c>
-      <c r="B168" s="157"/>
+      <c r="B168" s="154"/>
       <c r="C168" s="83" t="s">
         <v>29</v>
       </c>
@@ -10602,7 +10553,7 @@
       <c r="A169" s="36">
         <v>8</v>
       </c>
-      <c r="B169" s="157"/>
+      <c r="B169" s="154"/>
       <c r="C169" s="83" t="s">
         <v>31</v>
       </c>
@@ -10715,7 +10666,7 @@
       <c r="A170" s="36">
         <v>9</v>
       </c>
-      <c r="B170" s="157"/>
+      <c r="B170" s="154"/>
       <c r="C170" s="83" t="s">
         <v>20</v>
       </c>
@@ -10828,7 +10779,7 @@
       <c r="A171" s="36">
         <v>10</v>
       </c>
-      <c r="B171" s="157"/>
+      <c r="B171" s="154"/>
       <c r="C171" s="83" t="s">
         <v>15</v>
       </c>
@@ -10941,7 +10892,7 @@
       <c r="A172" s="36">
         <v>11</v>
       </c>
-      <c r="B172" s="157"/>
+      <c r="B172" s="154"/>
       <c r="C172" s="83" t="s">
         <v>18</v>
       </c>
@@ -11054,7 +11005,7 @@
       <c r="A173" s="36">
         <v>12</v>
       </c>
-      <c r="B173" s="157"/>
+      <c r="B173" s="154"/>
       <c r="C173" s="83" t="s">
         <v>13</v>
       </c>
@@ -11167,7 +11118,7 @@
       <c r="A174" s="36">
         <v>13</v>
       </c>
-      <c r="B174" s="157"/>
+      <c r="B174" s="154"/>
       <c r="C174" s="84" t="s">
         <v>23</v>
       </c>
@@ -11280,7 +11231,7 @@
       <c r="A175" s="36">
         <v>14</v>
       </c>
-      <c r="B175" s="157"/>
+      <c r="B175" s="154"/>
       <c r="C175" s="85" t="s">
         <v>28</v>
       </c>
@@ -11393,7 +11344,7 @@
       <c r="A176" s="36">
         <v>15</v>
       </c>
-      <c r="B176" s="157"/>
+      <c r="B176" s="154"/>
       <c r="C176" s="84" t="s">
         <v>26</v>
       </c>
@@ -11506,7 +11457,7 @@
       <c r="A177" s="36">
         <v>16</v>
       </c>
-      <c r="B177" s="157"/>
+      <c r="B177" s="154"/>
       <c r="C177" s="83" t="s">
         <v>17</v>
       </c>
@@ -11619,7 +11570,7 @@
       <c r="A178" s="36">
         <v>17</v>
       </c>
-      <c r="B178" s="157"/>
+      <c r="B178" s="154"/>
       <c r="C178" s="83" t="s">
         <v>16</v>
       </c>
@@ -11732,9 +11683,9 @@
       <c r="A179" s="36">
         <v>18</v>
       </c>
-      <c r="B179" s="157"/>
+      <c r="B179" s="154"/>
       <c r="C179" s="84" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D179" s="40">
         <f t="shared" si="15"/>
@@ -11845,9 +11796,9 @@
       <c r="A180" s="36">
         <v>19</v>
       </c>
-      <c r="B180" s="157"/>
+      <c r="B180" s="154"/>
       <c r="C180" s="84" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D180" s="40">
         <f t="shared" si="15"/>
@@ -11958,9 +11909,9 @@
       <c r="A181" s="36">
         <v>20</v>
       </c>
-      <c r="B181" s="157"/>
+      <c r="B181" s="154"/>
       <c r="C181" s="83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D181" s="40">
         <f t="shared" si="15"/>
@@ -12071,9 +12022,9 @@
       <c r="A182" s="130">
         <v>21</v>
       </c>
-      <c r="B182" s="158"/>
+      <c r="B182" s="155"/>
       <c r="C182" s="131" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D182" s="132">
         <f t="shared" si="15"/>
@@ -12303,7 +12254,7 @@
       </c>
       <c r="B184" s="47"/>
       <c r="C184" s="82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D184" s="40">
         <f t="shared" si="17"/>
@@ -12981,7 +12932,7 @@
       </c>
       <c r="B190" s="69"/>
       <c r="C190" s="81" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D190" s="40">
         <f t="shared" ref="D190:N193" si="20">SUMIF($C$2:$C$168,$C190&amp;"*",D$2:D$168)</f>
@@ -13094,7 +13045,7 @@
       </c>
       <c r="B191" s="69"/>
       <c r="C191" s="81" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D191" s="40">
         <f t="shared" si="20"/>
@@ -13207,7 +13158,7 @@
       </c>
       <c r="B192" s="69"/>
       <c r="C192" s="81" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D192" s="40">
         <f t="shared" si="20"/>
@@ -13320,7 +13271,7 @@
       </c>
       <c r="B193" s="69"/>
       <c r="C193" s="81" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D193" s="40">
         <f t="shared" si="20"/>
@@ -13563,7 +13514,7 @@
       <c r="M196" s="24"/>
       <c r="N196" s="24"/>
       <c r="AB196" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="197" spans="1:32" x14ac:dyDescent="0.25">
@@ -36243,465 +36194,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3ED5FE-53C9-4619-BBB0-8414E2FA90CA}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F19F4D68-562A-47BC-8898-153C588B8A33}">
-  <dimension ref="A1:W31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="G1" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="H1" s="100" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="95" t="s">
-        <v>121</v>
-      </c>
-      <c r="M1" s="64" t="s">
-        <v>124</v>
-      </c>
-      <c r="N1" s="64" t="s">
-        <v>125</v>
-      </c>
-      <c r="O1" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="P1" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q1" s="64" t="s">
-        <v>128</v>
-      </c>
-      <c r="R1" s="64" t="s">
-        <v>129</v>
-      </c>
-      <c r="S1" s="64" t="s">
-        <v>130</v>
-      </c>
-      <c r="T1" s="64" t="s">
-        <v>131</v>
-      </c>
-      <c r="U1" s="64" t="s">
-        <v>132</v>
-      </c>
-      <c r="V1" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="W1" s="64" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" t="str" cm="1">
-        <f t="array" ref="A3:C3">_xlfn.TEXTSPLIT(A$1," ")</f>
-        <v>001</v>
-      </c>
-      <c r="B3" t="str">
-        <v/>
-      </c>
-      <c r="C3" t="str">
-        <v>ORECC</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" t="str" cm="1">
-        <f t="array" ref="A9:A31">TRANSPOSE(A1:W1)</f>
-        <v>001  ORECC</v>
-      </c>
-      <c r="C9" t="str" cm="1">
-        <f t="array" ref="C9:E9">_xlfn.TEXTSPLIT(A9," ")</f>
-        <v>001</v>
-      </c>
-      <c r="D9" t="str">
-        <v/>
-      </c>
-      <c r="E9" t="str">
-        <v>ORECC</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
-        <v>002 TROFIE</v>
-      </c>
-      <c r="C10" t="str" cm="1">
-        <f t="array" ref="C10:D10">_xlfn.TEXTSPLIT(A10," ")</f>
-        <v>002</v>
-      </c>
-      <c r="D10" t="str">
-        <v>TROFIE</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
-        <v>003 MACCH.</v>
-      </c>
-      <c r="C11" t="str" cm="1">
-        <f t="array" ref="C11:D11">_xlfn.TEXTSPLIT(A11," ")</f>
-        <v>003</v>
-      </c>
-      <c r="D11" t="str">
-        <v>MACCH.</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
-        <v>004 CAVAT.</v>
-      </c>
-      <c r="C12" t="str" cm="1">
-        <f t="array" ref="C12:D12">_xlfn.TEXTSPLIT(A12," ")</f>
-        <v>004</v>
-      </c>
-      <c r="D12" t="str">
-        <v>CAVAT.</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
-        <v>005  OREC_INT</v>
-      </c>
-      <c r="C13" t="str" cm="1">
-        <f t="array" ref="C13:E13">_xlfn.TEXTSPLIT(A13," ")</f>
-        <v>005</v>
-      </c>
-      <c r="D13" t="str">
-        <v/>
-      </c>
-      <c r="E13" t="str">
-        <v>OREC_INT</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
-        <v>006 MACC_INT</v>
-      </c>
-      <c r="C14" t="str" cm="1">
-        <f t="array" ref="C14:D14">_xlfn.TEXTSPLIT(A14," ")</f>
-        <v>006</v>
-      </c>
-      <c r="D14" t="str">
-        <v>MACC_INT</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
-        <v>007  MAR.INT</v>
-      </c>
-      <c r="C15" t="str" cm="1">
-        <f t="array" ref="C15:E15">_xlfn.TEXTSPLIT(A15," ")</f>
-        <v>007</v>
-      </c>
-      <c r="D15" t="str">
-        <v/>
-      </c>
-      <c r="E15" t="str">
-        <v>MAR.INT</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
-        <v>008 cav. Int</v>
-      </c>
-      <c r="C16" t="str" cm="1">
-        <f t="array" ref="C16:E16">_xlfn.TEXTSPLIT(A16," ")</f>
-        <v>008</v>
-      </c>
-      <c r="D16" t="str">
-        <v>cav.</v>
-      </c>
-      <c r="E16" t="str">
-        <v>Int</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
-        <v>009  MARIT.</v>
-      </c>
-      <c r="C17" t="str" cm="1">
-        <f t="array" ref="C17:E17">_xlfn.TEXTSPLIT(A17," ")</f>
-        <v>009</v>
-      </c>
-      <c r="D17" t="str">
-        <v/>
-      </c>
-      <c r="E17" t="str">
-        <v>MARIT.</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="str">
-        <v>010  TROCC</v>
-      </c>
-      <c r="C18" t="str" cm="1">
-        <f t="array" ref="C18:E18">_xlfn.TEXTSPLIT(A18," ")</f>
-        <v>010</v>
-      </c>
-      <c r="D18" t="str">
-        <v/>
-      </c>
-      <c r="E18" t="str">
-        <v>TROCC</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="str">
-        <v>011  STRASC</v>
-      </c>
-      <c r="C19" t="str" cm="1">
-        <f t="array" ref="C19:E19">_xlfn.TEXTSPLIT(A19," ")</f>
-        <v>011</v>
-      </c>
-      <c r="D19" t="str">
-        <v/>
-      </c>
-      <c r="E19" t="str">
-        <v>STRASC</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="str">
-        <v>027 ORECCHIETTE_C.RAPA</v>
-      </c>
-      <c r="C20" t="str" cm="1">
-        <f t="array" ref="C20:D20">_xlfn.TEXTSPLIT(A20," ")</f>
-        <v>027</v>
-      </c>
-      <c r="D20" t="str">
-        <v>ORECCHIETTE_C.RAPA</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="str">
-        <v>030   ORECCHIETTE_SECCHE</v>
-      </c>
-      <c r="C21" t="str" cm="1">
-        <f t="array" ref="C21:F21">_xlfn.TEXTSPLIT(A21," ")</f>
-        <v>030</v>
-      </c>
-      <c r="D21" t="str">
-        <v/>
-      </c>
-      <c r="E21" t="str">
-        <v/>
-      </c>
-      <c r="F21" t="str">
-        <v>ORECCHIETTE_SECCHE</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="str">
-        <v>032   CAVATELLI_SECCHE</v>
-      </c>
-      <c r="C22" t="str" cm="1">
-        <f t="array" ref="C22:F22">_xlfn.TEXTSPLIT(A22," ")</f>
-        <v>032</v>
-      </c>
-      <c r="D22" t="str">
-        <v/>
-      </c>
-      <c r="E22" t="str">
-        <v/>
-      </c>
-      <c r="F22" t="str">
-        <v>CAVATELLI_SECCHE</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="str">
-        <v>034   TROCCOLI_SECCHE</v>
-      </c>
-      <c r="C23" t="str" cm="1">
-        <f t="array" ref="C23:F23">_xlfn.TEXTSPLIT(A23," ")</f>
-        <v>034</v>
-      </c>
-      <c r="D23" t="str">
-        <v/>
-      </c>
-      <c r="E23" t="str">
-        <v/>
-      </c>
-      <c r="F23" t="str">
-        <v>TROCCOLI_SECCHE</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
-        <v>035 PAPP_SEMOLA_SECCHE</v>
-      </c>
-      <c r="C24" t="str" cm="1">
-        <f t="array" ref="C24:D24">_xlfn.TEXTSPLIT(A24," ")</f>
-        <v>035</v>
-      </c>
-      <c r="D24" t="str">
-        <v>PAPP_SEMOLA_SECCHE</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="str">
-        <v>036 TAGLIATELLE_SEMOLA_SECCHE</v>
-      </c>
-      <c r="C25" t="str" cm="1">
-        <f t="array" ref="C25:D25">_xlfn.TEXTSPLIT(A25," ")</f>
-        <v>036</v>
-      </c>
-      <c r="D25" t="str">
-        <v>TAGLIATELLE_SEMOLA_SECCHE</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="str">
-        <v>39 MARITATI_INT_SECCHE</v>
-      </c>
-      <c r="C26" t="str" cm="1">
-        <f t="array" ref="C26:D26">_xlfn.TEXTSPLIT(A26," ")</f>
-        <v>39</v>
-      </c>
-      <c r="D26" t="str">
-        <v>MARITATI_INT_SECCHE</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="str">
-        <v>042   PAPP_UOVO_SECCHE</v>
-      </c>
-      <c r="C27" t="str" cm="1">
-        <f t="array" ref="C27:F27">_xlfn.TEXTSPLIT(A27," ")</f>
-        <v>042</v>
-      </c>
-      <c r="D27" t="str">
-        <v/>
-      </c>
-      <c r="E27" t="str">
-        <v/>
-      </c>
-      <c r="F27" t="str">
-        <v>PAPP_UOVO_SECCHE</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
-        <v>04 orecch.int_SECCHE</v>
-      </c>
-      <c r="C28" t="str" cm="1">
-        <f t="array" ref="C28:D28">_xlfn.TEXTSPLIT(A28," ")</f>
-        <v>04</v>
-      </c>
-      <c r="D28" t="str">
-        <v>orecch.int_SECCHE</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="str">
-        <v>0026 ORECCHIETTE_ARSO_SECCHE</v>
-      </c>
-      <c r="C29" t="str" cm="1">
-        <f t="array" ref="C29:D29">_xlfn.TEXTSPLIT(A29," ")</f>
-        <v>0026</v>
-      </c>
-      <c r="D29" t="str">
-        <v>ORECCHIETTE_ARSO_SECCHE</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="str">
-        <v>124     FUSILLI</v>
-      </c>
-      <c r="C30" t="str" cm="1">
-        <f t="array" ref="C30:H30">_xlfn.TEXTSPLIT(A30," ")</f>
-        <v>124</v>
-      </c>
-      <c r="D30" t="str">
-        <v/>
-      </c>
-      <c r="E30" t="str">
-        <v/>
-      </c>
-      <c r="F30" t="str">
-        <v/>
-      </c>
-      <c r="G30" t="str">
-        <v/>
-      </c>
-      <c r="H30" t="str">
-        <v>FUSILLI</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="str">
-        <v>125     FUSILLI_INT</v>
-      </c>
-      <c r="C31" t="str" cm="1">
-        <f t="array" ref="C31:H31">_xlfn.TEXTSPLIT(A31," ")</f>
-        <v>125</v>
-      </c>
-      <c r="D31" t="str">
-        <v/>
-      </c>
-      <c r="E31" t="str">
-        <v/>
-      </c>
-      <c r="F31" t="str">
-        <v/>
-      </c>
-      <c r="G31" t="str">
-        <v/>
-      </c>
-      <c r="H31" t="str">
-        <v>FUSILLI_INT</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1342C7CE-6C97-4939-8FDB-08E523DE384D}">
   <dimension ref="A1:M18"/>
   <sheetViews>
@@ -36724,28 +36216,28 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
         <v>79</v>
       </c>
-      <c r="B1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" t="s">
-        <v>81</v>
-      </c>
       <c r="D1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" t="s">
         <v>78</v>
       </c>
-      <c r="E1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" t="s">
-        <v>80</v>
-      </c>
       <c r="G1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -36753,10 +36245,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -36779,10 +36271,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E3" s="149">
         <v>5</v>
@@ -36802,13 +36294,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E4" s="149">
         <v>6</v>
@@ -36823,7 +36315,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K4">
         <f>COLUMN(Tabella1[[#Headers],[Valore]])</f>
@@ -36835,13 +36327,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E5" s="149">
         <v>6</v>
@@ -36856,7 +36348,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K5">
         <f>COLUMN(Tabella1[[#Headers],[Lunghezza]])</f>
@@ -36868,10 +36360,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E6" s="149">
         <v>6</v>
@@ -36886,7 +36378,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K6">
         <f>COLUMN(Tabella1[[#Headers],[default]])</f>
@@ -36898,7 +36390,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -36921,13 +36413,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E8" s="149">
         <v>15</v>
@@ -36947,13 +36439,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E9" s="149">
         <v>1</v>
@@ -36973,13 +36465,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E10" s="149">
         <v>15</v>
@@ -36999,10 +36491,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E11" s="149">
         <v>15</v>
@@ -37022,13 +36514,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E12" s="149">
         <v>15</v>
@@ -37048,10 +36540,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -37074,13 +36566,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E14" s="149">
         <v>1</v>
@@ -37203,7 +36695,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B16287B-BE6D-4D6F-A3D6-60EFDE11C93B}">
   <dimension ref="A1:AA32"/>
   <sheetViews>
@@ -37227,25 +36719,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
         <v>79</v>
       </c>
-      <c r="B1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" t="s">
-        <v>81</v>
-      </c>
       <c r="D1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" t="s">
         <v>78</v>
       </c>
-      <c r="E1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" t="s">
-        <v>80</v>
-      </c>
       <c r="G1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -37253,10 +36745,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E2" s="149">
         <v>2</v>
@@ -37273,10 +36765,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E3" s="149">
         <v>5</v>
@@ -37293,10 +36785,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E4" s="149">
         <v>15</v>
@@ -37313,10 +36805,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E5" s="149">
         <v>30</v>
@@ -37333,10 +36825,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E6" s="149">
         <v>2</v>
@@ -37353,10 +36845,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E7" s="149">
         <v>7</v>
@@ -37373,10 +36865,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E8" s="149">
         <v>9</v>
@@ -37393,10 +36885,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E9" s="149">
         <v>9</v>
@@ -37413,10 +36905,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E10" s="149">
         <v>4</v>
@@ -37433,10 +36925,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E11" s="149">
         <v>1</v>
@@ -37453,10 +36945,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E12" s="149">
         <v>2</v>
@@ -37473,10 +36965,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E13" s="149">
         <v>1</v>
@@ -37493,10 +36985,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E14" s="149">
         <v>1</v>
@@ -37513,10 +37005,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E15">
         <v>6</v>
@@ -37533,10 +37025,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -37553,10 +37045,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -37573,10 +37065,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -37593,10 +37085,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -37613,10 +37105,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E20">
         <v>5</v>
@@ -37633,10 +37125,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -37653,10 +37145,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E22" s="149">
         <v>1</v>
@@ -37673,7 +37165,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E23">
         <v>7</v>
@@ -37687,7 +37179,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -37701,7 +37193,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
@@ -37721,7 +37213,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E26">
         <v>6</v>
@@ -37735,7 +37227,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E27">
         <v>9</v>
@@ -37749,10 +37241,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E28" s="149">
         <v>23</v>
@@ -37853,7 +37345,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79B6B3F-A53A-40B4-A159-5A53FC02F8ED}">
   <dimension ref="A1:O20"/>
   <sheetViews>
@@ -37877,22 +37369,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
         <v>79</v>
       </c>
-      <c r="B1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" t="s">
-        <v>81</v>
-      </c>
       <c r="D1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" t="s">
         <v>78</v>
-      </c>
-      <c r="E1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -37900,10 +37392,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E2" s="149">
         <v>2</v>
@@ -37917,10 +37409,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E3" s="149">
         <v>5</v>
@@ -37934,10 +37426,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E4" s="149">
         <v>15</v>
@@ -37951,10 +37443,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E5" s="149">
         <v>30</v>
@@ -37968,10 +37460,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E6" s="149">
         <v>2</v>
@@ -37985,10 +37477,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E7" s="149">
         <v>7</v>
@@ -38002,10 +37494,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E8" s="149">
         <v>9</v>
@@ -38019,10 +37511,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E9" s="149">
         <v>9</v>
@@ -38036,10 +37528,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E10" s="149">
         <v>1</v>
@@ -38053,10 +37545,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E11" s="149">
         <v>2</v>
@@ -38070,10 +37562,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E12" s="149">
         <v>1</v>
@@ -38087,10 +37579,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E13" s="149">
         <v>1</v>
@@ -38104,10 +37596,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E14" s="149">
         <v>1</v>
@@ -38121,7 +37613,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -38138,10 +37630,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E16" s="149">
         <v>23</v>
@@ -38203,15 +37695,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA3FAC6-9F99-4F57-A723-973EE87B9D46}">
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="B1" sqref="B1:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="83" t="s">
@@ -38300,22 +37795,22 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="84" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="84" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="131" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -38325,7 +37820,7 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
@@ -38355,22 +37850,22 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="81" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="81" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="81" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="81" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -38378,12 +37873,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FDE1613-D14A-4CEE-86E0-5B12B3154235}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="D2" sqref="D2:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38394,38 +37889,38 @@
     <col min="5" max="5" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="155" t="s">
-        <v>113</v>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="153" t="s">
+        <v>111</v>
       </c>
       <c r="B1" s="150" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="160" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="150" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="150" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="150" t="s">
+        <v>162</v>
+      </c>
+      <c r="G1" s="150" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="157" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="151" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" t="s">
         <v>178</v>
-      </c>
-      <c r="C1" s="156" t="s">
-        <v>179</v>
-      </c>
-      <c r="D1" s="150" t="s">
-        <v>180</v>
-      </c>
-      <c r="E1" s="150" t="s">
-        <v>181</v>
-      </c>
-      <c r="F1" s="150" t="s">
-        <v>182</v>
-      </c>
-      <c r="G1" s="150" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="154" t="s">
-        <v>184</v>
-      </c>
-      <c r="B2" s="151" t="s">
-        <v>155</v>
-      </c>
-      <c r="C2" t="s">
-        <v>199</v>
       </c>
       <c r="D2" s="150">
         <v>500</v>
@@ -38438,15 +37933,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>185</v>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="151" t="s">
+        <v>165</v>
       </c>
       <c r="B3" s="151" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="D3" s="150">
         <v>500</v>
@@ -38459,15 +37954,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="154" t="s">
-        <v>186</v>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="157" t="s">
+        <v>166</v>
       </c>
       <c r="B4" s="151" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="D4" s="150">
         <v>500</v>
@@ -38480,15 +37975,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>187</v>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="151" t="s">
+        <v>184</v>
       </c>
       <c r="B5" s="151" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="C5" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="D5" s="150">
         <v>500</v>
@@ -38501,15 +37996,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="154" t="s">
-        <v>188</v>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="157" t="s">
+        <v>167</v>
       </c>
       <c r="B6" s="151" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="C6" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="D6" s="150">
         <v>350</v>
@@ -38522,15 +38017,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>189</v>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="151" t="s">
+        <v>168</v>
       </c>
       <c r="B7" s="151" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C7" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="D7" s="150">
         <v>350</v>
@@ -38543,15 +38038,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="154" t="s">
-        <v>190</v>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="157" t="s">
+        <v>169</v>
       </c>
       <c r="B8" s="151" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="C8" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="D8" s="150">
         <v>350</v>
@@ -38564,15 +38059,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>191</v>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="151" t="s">
+        <v>170</v>
       </c>
       <c r="B9" s="151" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="C9" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="D9" s="150">
         <v>350</v>
@@ -38584,16 +38079,17 @@
       <c r="G9" s="150">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="154" t="s">
-        <v>192</v>
+      <c r="H9" s="159"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="157" t="s">
+        <v>171</v>
       </c>
       <c r="B10" s="151" t="s">
-        <v>165</v>
-      </c>
-      <c r="C10" t="s">
-        <v>166</v>
+        <v>148</v>
+      </c>
+      <c r="C10" s="156" t="s">
+        <v>187</v>
       </c>
       <c r="D10" s="150">
         <v>350</v>
@@ -38606,15 +38102,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>193</v>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="151" t="s">
+        <v>172</v>
       </c>
       <c r="B11" s="151" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="C11" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="D11" s="150">
         <v>350</v>
@@ -38627,15 +38123,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="154" t="s">
-        <v>194</v>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="157" t="s">
+        <v>173</v>
       </c>
       <c r="B12" s="151" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="C12" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="D12" s="150">
         <v>350</v>
@@ -38648,15 +38144,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>195</v>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="151" t="s">
+        <v>174</v>
       </c>
       <c r="B13" s="151" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C13" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="D13" s="150">
         <v>350</v>
@@ -38669,15 +38165,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="154" t="s">
-        <v>196</v>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="157" t="s">
+        <v>175</v>
       </c>
       <c r="B14" s="151" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="C14" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="D14" s="150">
         <v>350</v>
@@ -38690,15 +38186,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>197</v>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="151" t="s">
+        <v>176</v>
       </c>
       <c r="B15" s="151" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="C15" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="D15" s="150">
         <v>250</v>
@@ -38713,15 +38209,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="153" t="s">
-        <v>198</v>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="158" t="s">
+        <v>177</v>
       </c>
       <c r="B16" s="151" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="C16" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="D16" s="150">
         <v>250</v>
@@ -38736,11 +38232,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I18" s="159"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A2:B16" numberStoredAsText="1"/>
+  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/venduto 2024.xlsx
+++ b/venduto 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edoardo\Documents\fatturazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F942B6-7539-48C2-B98F-81E3DB3B9661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9895DB3-1957-4BE4-A4DC-9A5AEE1C8103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GENNAIO 2024" sheetId="47" r:id="rId1"/>
@@ -483,9 +483,6 @@
     <t>0111  STRASC FRESCHE</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8032894740276</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 8032894740320</t>
   </si>
   <si>
@@ -631,6 +628,9 @@
   </si>
   <si>
     <t>MARITATI FRESCHI INTEGRALI</t>
+  </si>
+  <si>
+    <t>8032894740276</t>
   </si>
 </sst>
 </file>
@@ -1090,7 +1090,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1519,18 +1519,14 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="21" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="21" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1889,7 +1885,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9759,7 +9755,7 @@
       <c r="A162" s="36">
         <v>1</v>
       </c>
-      <c r="B162" s="154" t="s">
+      <c r="B162" s="157" t="s">
         <v>37</v>
       </c>
       <c r="C162" s="83" t="s">
@@ -9875,7 +9871,7 @@
       <c r="A163" s="36">
         <v>2</v>
       </c>
-      <c r="B163" s="154"/>
+      <c r="B163" s="157"/>
       <c r="C163" s="83" t="s">
         <v>24</v>
       </c>
@@ -9988,7 +9984,7 @@
       <c r="A164" s="36">
         <v>3</v>
       </c>
-      <c r="B164" s="154"/>
+      <c r="B164" s="157"/>
       <c r="C164" s="83" t="s">
         <v>25</v>
       </c>
@@ -10101,7 +10097,7 @@
       <c r="A165" s="36">
         <v>4</v>
       </c>
-      <c r="B165" s="154"/>
+      <c r="B165" s="157"/>
       <c r="C165" s="83" t="s">
         <v>27</v>
       </c>
@@ -10214,7 +10210,7 @@
       <c r="A166" s="36">
         <v>5</v>
       </c>
-      <c r="B166" s="154"/>
+      <c r="B166" s="157"/>
       <c r="C166" s="83" t="s">
         <v>41</v>
       </c>
@@ -10327,7 +10323,7 @@
       <c r="A167" s="36">
         <v>6</v>
       </c>
-      <c r="B167" s="154"/>
+      <c r="B167" s="157"/>
       <c r="C167" s="83" t="s">
         <v>14</v>
       </c>
@@ -10440,7 +10436,7 @@
       <c r="A168" s="36">
         <v>7</v>
       </c>
-      <c r="B168" s="154"/>
+      <c r="B168" s="157"/>
       <c r="C168" s="83" t="s">
         <v>29</v>
       </c>
@@ -10553,7 +10549,7 @@
       <c r="A169" s="36">
         <v>8</v>
       </c>
-      <c r="B169" s="154"/>
+      <c r="B169" s="157"/>
       <c r="C169" s="83" t="s">
         <v>31</v>
       </c>
@@ -10666,7 +10662,7 @@
       <c r="A170" s="36">
         <v>9</v>
       </c>
-      <c r="B170" s="154"/>
+      <c r="B170" s="157"/>
       <c r="C170" s="83" t="s">
         <v>20</v>
       </c>
@@ -10779,7 +10775,7 @@
       <c r="A171" s="36">
         <v>10</v>
       </c>
-      <c r="B171" s="154"/>
+      <c r="B171" s="157"/>
       <c r="C171" s="83" t="s">
         <v>15</v>
       </c>
@@ -10892,7 +10888,7 @@
       <c r="A172" s="36">
         <v>11</v>
       </c>
-      <c r="B172" s="154"/>
+      <c r="B172" s="157"/>
       <c r="C172" s="83" t="s">
         <v>18</v>
       </c>
@@ -11005,7 +11001,7 @@
       <c r="A173" s="36">
         <v>12</v>
       </c>
-      <c r="B173" s="154"/>
+      <c r="B173" s="157"/>
       <c r="C173" s="83" t="s">
         <v>13</v>
       </c>
@@ -11118,7 +11114,7 @@
       <c r="A174" s="36">
         <v>13</v>
       </c>
-      <c r="B174" s="154"/>
+      <c r="B174" s="157"/>
       <c r="C174" s="84" t="s">
         <v>23</v>
       </c>
@@ -11231,7 +11227,7 @@
       <c r="A175" s="36">
         <v>14</v>
       </c>
-      <c r="B175" s="154"/>
+      <c r="B175" s="157"/>
       <c r="C175" s="85" t="s">
         <v>28</v>
       </c>
@@ -11344,7 +11340,7 @@
       <c r="A176" s="36">
         <v>15</v>
       </c>
-      <c r="B176" s="154"/>
+      <c r="B176" s="157"/>
       <c r="C176" s="84" t="s">
         <v>26</v>
       </c>
@@ -11457,7 +11453,7 @@
       <c r="A177" s="36">
         <v>16</v>
       </c>
-      <c r="B177" s="154"/>
+      <c r="B177" s="157"/>
       <c r="C177" s="83" t="s">
         <v>17</v>
       </c>
@@ -11570,7 +11566,7 @@
       <c r="A178" s="36">
         <v>17</v>
       </c>
-      <c r="B178" s="154"/>
+      <c r="B178" s="157"/>
       <c r="C178" s="83" t="s">
         <v>16</v>
       </c>
@@ -11683,7 +11679,7 @@
       <c r="A179" s="36">
         <v>18</v>
       </c>
-      <c r="B179" s="154"/>
+      <c r="B179" s="157"/>
       <c r="C179" s="84" t="s">
         <v>60</v>
       </c>
@@ -11796,7 +11792,7 @@
       <c r="A180" s="36">
         <v>19</v>
       </c>
-      <c r="B180" s="154"/>
+      <c r="B180" s="157"/>
       <c r="C180" s="84" t="s">
         <v>59</v>
       </c>
@@ -11909,7 +11905,7 @@
       <c r="A181" s="36">
         <v>20</v>
       </c>
-      <c r="B181" s="154"/>
+      <c r="B181" s="157"/>
       <c r="C181" s="83" t="s">
         <v>47</v>
       </c>
@@ -12022,7 +12018,7 @@
       <c r="A182" s="130">
         <v>21</v>
       </c>
-      <c r="B182" s="155"/>
+      <c r="B182" s="158"/>
       <c r="C182" s="131" t="s">
         <v>55</v>
       </c>
@@ -36197,8 +36193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1342C7CE-6C97-4939-8FDB-08E523DE384D}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36689,8 +36685,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -37877,8 +37874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FDE1613-D14A-4CEE-86E0-5B12B3154235}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D16"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37894,33 +37891,33 @@
         <v>111</v>
       </c>
       <c r="B1" s="150" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="150" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="160" t="s">
+      <c r="D1" s="150" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="150" t="s">
+      <c r="E1" s="150" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" s="150" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="150" t="s">
-        <v>185</v>
-      </c>
-      <c r="F1" s="150" t="s">
+      <c r="G1" s="150" t="s">
         <v>162</v>
       </c>
-      <c r="G1" s="150" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="154" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="157" t="s">
-        <v>164</v>
-      </c>
       <c r="B2" s="151" t="s">
-        <v>139</v>
+        <v>188</v>
       </c>
       <c r="C2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D2" s="150">
         <v>500</v>
@@ -37935,13 +37932,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="151" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B3" s="151" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D3" s="150">
         <v>500</v>
@@ -37955,14 +37952,14 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="157" t="s">
-        <v>166</v>
+      <c r="A4" s="154" t="s">
+        <v>165</v>
       </c>
       <c r="B4" s="151" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D4" s="150">
         <v>500</v>
@@ -37977,13 +37974,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="151" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B5" s="151" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D5" s="150">
         <v>500</v>
@@ -37997,14 +37994,14 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="157" t="s">
-        <v>167</v>
+      <c r="A6" s="154" t="s">
+        <v>166</v>
       </c>
       <c r="B6" s="151" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" t="s">
         <v>142</v>
-      </c>
-      <c r="C6" t="s">
-        <v>143</v>
       </c>
       <c r="D6" s="150">
         <v>350</v>
@@ -38019,13 +38016,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="151" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B7" s="151" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" t="s">
         <v>144</v>
-      </c>
-      <c r="C7" t="s">
-        <v>145</v>
       </c>
       <c r="D7" s="150">
         <v>350</v>
@@ -38039,14 +38036,14 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="157" t="s">
-        <v>169</v>
+      <c r="A8" s="154" t="s">
+        <v>168</v>
       </c>
       <c r="B8" s="151" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D8" s="150">
         <v>350</v>
@@ -38061,13 +38058,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="151" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B9" s="151" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D9" s="150">
         <v>350</v>
@@ -38079,17 +38076,17 @@
       <c r="G9" s="150">
         <v>4</v>
       </c>
-      <c r="H9" s="159"/>
+      <c r="H9" s="156"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="157" t="s">
-        <v>171</v>
+      <c r="A10" s="154" t="s">
+        <v>170</v>
       </c>
       <c r="B10" s="151" t="s">
-        <v>148</v>
-      </c>
-      <c r="C10" s="156" t="s">
-        <v>187</v>
+        <v>147</v>
+      </c>
+      <c r="C10" t="s">
+        <v>186</v>
       </c>
       <c r="D10" s="150">
         <v>350</v>
@@ -38104,13 +38101,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="151" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B11" s="151" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D11" s="150">
         <v>350</v>
@@ -38124,14 +38121,14 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="157" t="s">
-        <v>173</v>
+      <c r="A12" s="154" t="s">
+        <v>172</v>
       </c>
       <c r="B12" s="151" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" t="s">
         <v>150</v>
-      </c>
-      <c r="C12" t="s">
-        <v>151</v>
       </c>
       <c r="D12" s="150">
         <v>350</v>
@@ -38146,13 +38143,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="151" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B13" s="151" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" t="s">
         <v>152</v>
-      </c>
-      <c r="C13" t="s">
-        <v>153</v>
       </c>
       <c r="D13" s="150">
         <v>350</v>
@@ -38166,14 +38163,14 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="157" t="s">
-        <v>175</v>
+      <c r="A14" s="154" t="s">
+        <v>174</v>
       </c>
       <c r="B14" s="151" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" t="s">
         <v>154</v>
-      </c>
-      <c r="C14" t="s">
-        <v>155</v>
       </c>
       <c r="D14" s="150">
         <v>350</v>
@@ -38188,13 +38185,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="151" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B15" s="151" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" t="s">
         <v>156</v>
-      </c>
-      <c r="C15" t="s">
-        <v>157</v>
       </c>
       <c r="D15" s="150">
         <v>250</v>
@@ -38210,14 +38207,14 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="158" t="s">
-        <v>177</v>
+      <c r="A16" s="155" t="s">
+        <v>176</v>
       </c>
       <c r="B16" s="151" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D16" s="150">
         <v>250</v>
@@ -38235,7 +38232,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:B16" numberStoredAsText="1"/>
+    <ignoredError sqref="A3:B4 A6:B16 A5 A2" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/venduto 2024.xlsx
+++ b/venduto 2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edoardo\Documents\fatturazione\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e.cavallo\Documents\fatturazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9895DB3-1957-4BE4-A4DC-9A5AEE1C8103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78608996-28EF-40AE-841A-8EC97BA644D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GENNAIO 2024" sheetId="47" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <definedName name="agosto">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="285">
   <si>
     <t>n. buono</t>
   </si>
@@ -632,19 +633,308 @@
   <si>
     <t>8032894740276</t>
   </si>
+  <si>
+    <t>080817</t>
+  </si>
+  <si>
+    <t>MEGAGEST S.R.L.</t>
+  </si>
+  <si>
+    <t>VIA TORRETTA, 34 (RIONE PARADISO)</t>
+  </si>
+  <si>
+    <t>BRINDISI</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>04185320720</t>
+  </si>
+  <si>
+    <t>Famila</t>
+  </si>
+  <si>
+    <t>PROPRIETA'</t>
+  </si>
+  <si>
+    <t>0831/555595</t>
+  </si>
+  <si>
+    <t>178302</t>
+  </si>
+  <si>
+    <t>VIA ORIA</t>
+  </si>
+  <si>
+    <t>FRANCAVILLA FONTANA</t>
+  </si>
+  <si>
+    <t>0831/821007</t>
+  </si>
+  <si>
+    <t>dok</t>
+  </si>
+  <si>
+    <t>080840</t>
+  </si>
+  <si>
+    <t>VIA PIETRO DE LAURENTIS, S.N.</t>
+  </si>
+  <si>
+    <t>OSTUNI</t>
+  </si>
+  <si>
+    <t>0831/1853070</t>
+  </si>
+  <si>
+    <t>070511</t>
+  </si>
+  <si>
+    <t>VIA SFERRACAVALLO, S.N.</t>
+  </si>
+  <si>
+    <t>CRISPIANO</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>099/611813</t>
+  </si>
+  <si>
+    <t>070513</t>
+  </si>
+  <si>
+    <t>VIA MARCONI ANG. VIA DE GASPERI</t>
+  </si>
+  <si>
+    <t>GROTTAGLIE</t>
+  </si>
+  <si>
+    <t>099/5622958</t>
+  </si>
+  <si>
+    <t>070500</t>
+  </si>
+  <si>
+    <t>VIA SCIABELLE, 1</t>
+  </si>
+  <si>
+    <t>LAMA-TARANTO</t>
+  </si>
+  <si>
+    <t>099-7775823</t>
+  </si>
+  <si>
+    <t>080810</t>
+  </si>
+  <si>
+    <t>VIA LAMA ANG. CIRCONVAL. FIORI</t>
+  </si>
+  <si>
+    <t>099-7776105</t>
+  </si>
+  <si>
+    <t>070510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEGAGEST S.R.L. </t>
+  </si>
+  <si>
+    <t>S.S. 7 APPIA PER SAVA</t>
+  </si>
+  <si>
+    <t>MANDURIA</t>
+  </si>
+  <si>
+    <t>099/9794759</t>
+  </si>
+  <si>
+    <t>080823</t>
+  </si>
+  <si>
+    <t>VIALE PITAGORA, SN</t>
+  </si>
+  <si>
+    <t>MARINA DI GINOSA</t>
+  </si>
+  <si>
+    <t>099/8271735</t>
+  </si>
+  <si>
+    <t>178316</t>
+  </si>
+  <si>
+    <t>VIA TARANTO, 38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTINA FRANCA </t>
+  </si>
+  <si>
+    <t>080/4306887</t>
+  </si>
+  <si>
+    <t>096005</t>
+  </si>
+  <si>
+    <t>VIALE MAGNA GRECIA, 14/36</t>
+  </si>
+  <si>
+    <t>MASSAFRA</t>
+  </si>
+  <si>
+    <t>099/4507471</t>
+  </si>
+  <si>
+    <t>070509</t>
+  </si>
+  <si>
+    <t>VIA SARDEGNA, SN ANG. VIA CAMPANIA</t>
+  </si>
+  <si>
+    <t>MOTTOLA</t>
+  </si>
+  <si>
+    <t>099/8865098</t>
+  </si>
+  <si>
+    <t>070508</t>
+  </si>
+  <si>
+    <t>VIA TARANTO, 116</t>
+  </si>
+  <si>
+    <t>PULSANO</t>
+  </si>
+  <si>
+    <t>099/5338826</t>
+  </si>
+  <si>
+    <t>473907</t>
+  </si>
+  <si>
+    <t>VIALE EUROPA, 147</t>
+  </si>
+  <si>
+    <t>TALSANO</t>
+  </si>
+  <si>
+    <t>099/7715610</t>
+  </si>
+  <si>
+    <t>473909</t>
+  </si>
+  <si>
+    <t>VIALE MAGNA GRECIA</t>
+  </si>
+  <si>
+    <t>TARANTO</t>
+  </si>
+  <si>
+    <t>099/7323675</t>
+  </si>
+  <si>
+    <t>070504</t>
+  </si>
+  <si>
+    <t>VIA ATENISIO, 8 (VIA MARIA BOSCHIO,8)</t>
+  </si>
+  <si>
+    <t>099/7792039</t>
+  </si>
+  <si>
+    <t>070507</t>
+  </si>
+  <si>
+    <t>VIA ARISTOSSENO, 13-19</t>
+  </si>
+  <si>
+    <t>099/4792367</t>
+  </si>
+  <si>
+    <t>080822</t>
+  </si>
+  <si>
+    <t>VIA CESARE BATTISTI, 424</t>
+  </si>
+  <si>
+    <t>099/7793377</t>
+  </si>
+  <si>
+    <t>096000</t>
+  </si>
+  <si>
+    <t>VIA ARGENTINA, 54</t>
+  </si>
+  <si>
+    <t>099/7304785</t>
+  </si>
+  <si>
+    <t>096002</t>
+  </si>
+  <si>
+    <t>VIA MEDAGLIE D'ORO, 138/142</t>
+  </si>
+  <si>
+    <t>099/7353560</t>
+  </si>
+  <si>
+    <t>096003</t>
+  </si>
+  <si>
+    <t>VIA P. AMEDEO, 56</t>
+  </si>
+  <si>
+    <t>099/4526464</t>
+  </si>
+  <si>
+    <t>ragionze sociale</t>
+  </si>
+  <si>
+    <t>indirizzo</t>
+  </si>
+  <si>
+    <t>cap</t>
+  </si>
+  <si>
+    <t>località</t>
+  </si>
+  <si>
+    <t>pr</t>
+  </si>
+  <si>
+    <t>partita iva</t>
+  </si>
+  <si>
+    <t>mq</t>
+  </si>
+  <si>
+    <t>cs</t>
+  </si>
+  <si>
+    <t>insegna</t>
+  </si>
+  <si>
+    <t>tel</t>
+  </si>
+  <si>
+    <t>descrizione</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
     <numFmt numFmtId="165" formatCode="&quot;€&quot;\ #,##0.00"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -743,6 +1033,39 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="22">
@@ -873,7 +1196,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1085,12 +1408,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1522,6 +1864,78 @@
     <xf numFmtId="49" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="21" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="5" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="5" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1529,9 +1943,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="6">
     <cellStyle name="Migliaia" xfId="1" builtinId="3"/>
+    <cellStyle name="Migliaia 3" xfId="3" xr:uid="{F89D3221-7CE5-4B4C-B6DB-04D6B29F2433}"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale 2" xfId="4" xr:uid="{2D68FDE0-021F-4520-BEF4-253341FA25A2}"/>
+    <cellStyle name="Normale 3" xfId="5" xr:uid="{DB14F1F6-0EA7-4183-BC41-66EB442DDF20}"/>
+    <cellStyle name="Normale 4" xfId="2" xr:uid="{02728CCF-DC74-4330-BFAC-D2FF200A16B3}"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -1884,8 +2302,8 @@
   <dimension ref="A1:AF1106"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2044,7 +2462,7 @@
         <v>40</v>
       </c>
       <c r="AB2" s="54">
-        <f t="shared" ref="AB2:AB6" si="1">SUM(O2:X2)</f>
+        <f>SUM(O2:X2)</f>
         <v>0</v>
       </c>
       <c r="AC2" s="17"/>
@@ -2097,7 +2515,7 @@
         <v>60</v>
       </c>
       <c r="AB3" s="54">
-        <f t="shared" si="1"/>
+        <f>SUM(O3:X3)</f>
         <v>0</v>
       </c>
       <c r="AC3" s="17"/>
@@ -2154,7 +2572,7 @@
         <v>54</v>
       </c>
       <c r="AB4" s="54">
-        <f t="shared" si="1"/>
+        <f>SUM(O4:X4)</f>
         <v>0</v>
       </c>
       <c r="AC4" s="17"/>
@@ -2203,7 +2621,7 @@
         <v>28</v>
       </c>
       <c r="AB5" s="54">
-        <f t="shared" si="1"/>
+        <f>SUM(O5:X5)</f>
         <v>0</v>
       </c>
       <c r="AC5" s="17"/>
@@ -2256,7 +2674,7 @@
         <v>37</v>
       </c>
       <c r="AB6" s="54">
-        <f t="shared" si="1"/>
+        <f>SUM(O6:X6)</f>
         <v>0</v>
       </c>
       <c r="AC6" s="17"/>
@@ -2311,7 +2729,7 @@
         <v>38</v>
       </c>
       <c r="AB7" s="54">
-        <f t="shared" ref="AB7:AB71" si="2">SUM(O7:X7)</f>
+        <f t="shared" ref="AB7:AB71" si="1">SUM(O7:X7)</f>
         <v>0</v>
       </c>
       <c r="AC7" s="17"/>
@@ -2368,7 +2786,7 @@
         <v>65</v>
       </c>
       <c r="AB8" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC8" s="17"/>
@@ -2417,7 +2835,7 @@
         <v>48</v>
       </c>
       <c r="AB9" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC9" s="17"/>
@@ -2468,7 +2886,7 @@
         <v>80</v>
       </c>
       <c r="AB10" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC10" s="17"/>
@@ -2529,7 +2947,7 @@
         <v>330</v>
       </c>
       <c r="AB11" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="AC11" s="17"/>
@@ -2580,7 +2998,7 @@
         <v>110</v>
       </c>
       <c r="AB12" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC12" s="17"/>
@@ -2633,7 +3051,7 @@
         <v>90</v>
       </c>
       <c r="AB13" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC13" s="17"/>
@@ -2681,7 +3099,7 @@
         <v>34</v>
       </c>
       <c r="AB14" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC14" s="17"/>
@@ -2730,7 +3148,7 @@
         <v>25</v>
       </c>
       <c r="AB15" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC15" s="17"/>
@@ -2787,7 +3205,7 @@
         <v>122</v>
       </c>
       <c r="AB16" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC16" s="17"/>
@@ -2876,7 +3294,7 @@
         <v>20</v>
       </c>
       <c r="AB18" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC18" s="17"/>
@@ -2935,7 +3353,7 @@
         <v>190</v>
       </c>
       <c r="AB19" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC19" s="17"/>
@@ -2996,7 +3414,7 @@
         <v>152</v>
       </c>
       <c r="AB20" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC20" s="17"/>
@@ -3051,7 +3469,7 @@
         <v>65</v>
       </c>
       <c r="AB21" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC21" s="17"/>
@@ -3106,7 +3524,7 @@
         <v>33</v>
       </c>
       <c r="AB22" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC22" s="17"/>
@@ -3149,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="AB23" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC23" s="17"/>
@@ -3198,7 +3616,7 @@
         <v>34</v>
       </c>
       <c r="AB24" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC24" s="17"/>
@@ -3251,7 +3669,7 @@
         <v>51</v>
       </c>
       <c r="AB25" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC25" s="17"/>
@@ -3304,7 +3722,7 @@
         <v>60</v>
       </c>
       <c r="AB26" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC26" s="17"/>
@@ -3363,7 +3781,7 @@
         <v>80</v>
       </c>
       <c r="AB27" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC27" s="17"/>
@@ -3414,7 +3832,7 @@
         <v>36</v>
       </c>
       <c r="AB28" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC28" s="17"/>
@@ -3463,7 +3881,7 @@
         <v>22</v>
       </c>
       <c r="AB29" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC29" s="17"/>
@@ -3506,7 +3924,7 @@
         <v>0</v>
       </c>
       <c r="AB30" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC30" s="17"/>
@@ -3561,7 +3979,7 @@
         <v>49</v>
       </c>
       <c r="AB31" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC31" s="17"/>
@@ -3608,7 +4026,7 @@
         <v>27</v>
       </c>
       <c r="AB32" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC32" s="17"/>
@@ -3663,7 +4081,7 @@
         <v>123</v>
       </c>
       <c r="AB33" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC33" s="17"/>
@@ -3724,7 +4142,7 @@
         <v>165</v>
       </c>
       <c r="AB34" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC34" s="17"/>
@@ -3777,7 +4195,7 @@
         <v>165</v>
       </c>
       <c r="AB35" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC35" s="17"/>
@@ -3840,7 +4258,7 @@
         <v>288</v>
       </c>
       <c r="AB36" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="AC36" s="17"/>
@@ -3895,7 +4313,7 @@
         <v>80</v>
       </c>
       <c r="AB37" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC37" s="17"/>
@@ -3940,7 +4358,7 @@
         <v>20</v>
       </c>
       <c r="AB38" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC38" s="17"/>
@@ -3989,7 +4407,7 @@
         <v>40</v>
       </c>
       <c r="AB39" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC39" s="17"/>
@@ -4038,11 +4456,11 @@
         <v>5</v>
       </c>
       <c r="AA40" s="54">
-        <f t="shared" ref="AA40:AA122" si="3">SUM(D40:N40)+Y40+Z40</f>
+        <f t="shared" ref="AA40:AA122" si="2">SUM(D40:N40)+Y40+Z40</f>
         <v>75</v>
       </c>
       <c r="AB40" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC40" s="17"/>
@@ -4093,11 +4511,11 @@
       </c>
       <c r="Z41" s="53"/>
       <c r="AA41" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="AB41" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC41" s="17"/>
@@ -4150,11 +4568,11 @@
       <c r="Y42" s="53"/>
       <c r="Z42" s="53"/>
       <c r="AA42" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="AB42" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC42" s="17"/>
@@ -4205,11 +4623,11 @@
         <v>10</v>
       </c>
       <c r="AA43" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="AB43" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC43" s="17"/>
@@ -4262,11 +4680,11 @@
       <c r="Y44" s="53"/>
       <c r="Z44" s="53"/>
       <c r="AA44" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="AB44" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC44" s="17"/>
@@ -4315,11 +4733,11 @@
       <c r="Y45" s="53"/>
       <c r="Z45" s="53"/>
       <c r="AA45" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="AB45" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC45" s="17"/>
@@ -4372,11 +4790,11 @@
       <c r="Y46" s="53"/>
       <c r="Z46" s="53"/>
       <c r="AA46" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>145</v>
       </c>
       <c r="AB46" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="AC46" s="17"/>
@@ -4415,11 +4833,11 @@
       <c r="Y47" s="53"/>
       <c r="Z47" s="53"/>
       <c r="AA47" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB47" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC47" s="17"/>
@@ -4462,11 +4880,11 @@
       <c r="Y48" s="53"/>
       <c r="Z48" s="53"/>
       <c r="AA48" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AB48" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC48" s="17"/>
@@ -4517,11 +4935,11 @@
       <c r="Y49" s="53"/>
       <c r="Z49" s="53"/>
       <c r="AA49" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="AB49" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC49" s="17"/>
@@ -4574,11 +4992,11 @@
         <v>6</v>
       </c>
       <c r="AA50" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="AB50" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC50" s="17"/>
@@ -4621,11 +5039,11 @@
       <c r="Y51" s="53"/>
       <c r="Z51" s="53"/>
       <c r="AA51" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="AB51" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC51" s="17"/>
@@ -4674,11 +5092,11 @@
       <c r="Y52" s="53"/>
       <c r="Z52" s="53"/>
       <c r="AA52" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="AB52" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC52" s="17"/>
@@ -4727,11 +5145,11 @@
       <c r="Y53" s="53"/>
       <c r="Z53" s="53"/>
       <c r="AA53" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="AB53" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC53" s="17"/>
@@ -4784,11 +5202,11 @@
       </c>
       <c r="Z54" s="53"/>
       <c r="AA54" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="AB54" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC54" s="17"/>
@@ -4837,11 +5255,11 @@
       <c r="Y55" s="53"/>
       <c r="Z55" s="53"/>
       <c r="AA55" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="AB55" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC55" s="17"/>
@@ -4888,11 +5306,11 @@
       <c r="Y56" s="53"/>
       <c r="Z56" s="53"/>
       <c r="AA56" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="AB56" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC56" s="17"/>
@@ -4945,11 +5363,11 @@
         <v>10</v>
       </c>
       <c r="AA57" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>175</v>
       </c>
       <c r="AB57" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC57" s="17"/>
@@ -5000,11 +5418,11 @@
         <v>5</v>
       </c>
       <c r="AA58" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="AB58" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC58" s="17"/>
@@ -5049,11 +5467,11 @@
         <v>12</v>
       </c>
       <c r="AA59" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="AB59" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC59" s="17"/>
@@ -5106,11 +5524,11 @@
       </c>
       <c r="Z60" s="53"/>
       <c r="AA60" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>125</v>
       </c>
       <c r="AB60" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC60" s="17"/>
@@ -5159,11 +5577,11 @@
       <c r="Y61" s="53"/>
       <c r="Z61" s="53"/>
       <c r="AA61" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="AB61" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC61" s="17"/>
@@ -5218,11 +5636,11 @@
         <v>10</v>
       </c>
       <c r="AA62" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>93</v>
       </c>
       <c r="AB62" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC62" s="17"/>
@@ -5279,11 +5697,11 @@
       <c r="Y63" s="53"/>
       <c r="Z63" s="53"/>
       <c r="AA63" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>255</v>
       </c>
       <c r="AB63" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="AC63" s="17"/>
@@ -5336,11 +5754,11 @@
       <c r="Y64" s="53"/>
       <c r="Z64" s="53"/>
       <c r="AA64" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="AB64" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC64" s="17"/>
@@ -5397,11 +5815,11 @@
         <v>5</v>
       </c>
       <c r="AA65" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="AB65" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC65" s="17"/>
@@ -5452,11 +5870,11 @@
       <c r="Y66" s="53"/>
       <c r="Z66" s="53"/>
       <c r="AA66" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="AB66" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC66" s="17"/>
@@ -5499,11 +5917,11 @@
       <c r="Y67" s="53"/>
       <c r="Z67" s="53"/>
       <c r="AA67" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AB67" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC67" s="17"/>
@@ -5546,11 +5964,11 @@
       <c r="Y68" s="53"/>
       <c r="Z68" s="53"/>
       <c r="AA68" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="AB68" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC68" s="17"/>
@@ -5607,11 +6025,11 @@
         <v>15</v>
       </c>
       <c r="AA69" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="AB69" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="AC69" s="17"/>
@@ -5664,11 +6082,11 @@
       <c r="Y70" s="53"/>
       <c r="Z70" s="53"/>
       <c r="AA70" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>115</v>
       </c>
       <c r="AB70" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC70" s="17"/>
@@ -5717,11 +6135,11 @@
       <c r="Y71" s="53"/>
       <c r="Z71" s="53"/>
       <c r="AA71" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="AB71" s="54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AC71" s="17"/>
@@ -5778,11 +6196,11 @@
         <v>8</v>
       </c>
       <c r="AA72" s="54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>102</v>
       </c>
       <c r="AB72" s="54">
-        <f t="shared" ref="AB72:AB154" si="4">SUM(O72:X72)</f>
+        <f t="shared" ref="AB72:AB154" si="3">SUM(O72:X72)</f>
         <v>0</v>
       </c>
       <c r="AC72" s="17"/>
@@ -5833,11 +6251,11 @@
         <v>6</v>
       </c>
       <c r="AA73" s="54">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="AB73" s="54">
         <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="AB73" s="54">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC73" s="17"/>
@@ -5890,11 +6308,11 @@
       </c>
       <c r="Z74" s="53"/>
       <c r="AA74" s="54">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="AB74" s="54">
         <f t="shared" si="3"/>
-        <v>62</v>
-      </c>
-      <c r="AB74" s="54">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC74" s="17"/>
@@ -5947,11 +6365,11 @@
         <v>6</v>
       </c>
       <c r="AA75" s="54">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB75" s="54">
         <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-      <c r="AB75" s="54">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC75" s="17"/>
@@ -5996,11 +6414,11 @@
       <c r="Y76" s="53"/>
       <c r="Z76" s="53"/>
       <c r="AA76" s="54">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="AB76" s="54">
         <f t="shared" si="3"/>
-        <v>47</v>
-      </c>
-      <c r="AB76" s="54">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC76" s="17"/>
@@ -6053,11 +6471,11 @@
       </c>
       <c r="Z77" s="53"/>
       <c r="AA77" s="54">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="AB77" s="54">
         <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="AB77" s="54">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC77" s="17"/>
@@ -6096,11 +6514,11 @@
       <c r="Y78" s="53"/>
       <c r="Z78" s="53"/>
       <c r="AA78" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB78" s="54">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB78" s="54">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC78" s="17"/>
@@ -6153,11 +6571,11 @@
       </c>
       <c r="Z79" s="53"/>
       <c r="AA79" s="54">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="AB79" s="54">
         <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="AB79" s="54">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC79" s="17"/>
@@ -6200,11 +6618,11 @@
       <c r="Y80" s="53"/>
       <c r="Z80" s="53"/>
       <c r="AA80" s="54">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB80" s="54">
         <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="AB80" s="54">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC80" s="17"/>
@@ -6247,11 +6665,11 @@
       <c r="Y81" s="53"/>
       <c r="Z81" s="53"/>
       <c r="AA81" s="54">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="AB81" s="54">
         <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="AB81" s="54">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC81" s="17"/>
@@ -6294,11 +6712,11 @@
       <c r="Y82" s="53"/>
       <c r="Z82" s="53"/>
       <c r="AA82" s="54">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="AB82" s="54">
         <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="AB82" s="54">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC82" s="17"/>
@@ -6343,11 +6761,11 @@
       <c r="Y83" s="53"/>
       <c r="Z83" s="53"/>
       <c r="AA83" s="54">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="AB83" s="54">
         <f t="shared" si="3"/>
-        <v>95</v>
-      </c>
-      <c r="AB83" s="54">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC83" s="17"/>
@@ -6400,11 +6818,11 @@
         <v>8</v>
       </c>
       <c r="AA84" s="54">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="AB84" s="54">
         <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="AB84" s="54">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC84" s="17"/>
@@ -6449,11 +6867,11 @@
       </c>
       <c r="Z85" s="53"/>
       <c r="AA85" s="54">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="AB85" s="54">
         <f t="shared" si="3"/>
-        <v>35</v>
-      </c>
-      <c r="AB85" s="54">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC85" s="17"/>
@@ -6502,11 +6920,11 @@
         <v>8</v>
       </c>
       <c r="AA86" s="54">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="AB86" s="54">
         <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="AB86" s="54">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC86" s="17"/>
@@ -6559,11 +6977,11 @@
       <c r="Y87" s="53"/>
       <c r="Z87" s="53"/>
       <c r="AA87" s="54">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="AB87" s="54">
         <f t="shared" si="3"/>
-        <v>85</v>
-      </c>
-      <c r="AB87" s="54">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC87" s="17"/>
@@ -6620,11 +7038,11 @@
         <v>2</v>
       </c>
       <c r="AA88" s="54">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="AB88" s="54">
         <f t="shared" si="3"/>
-        <v>86</v>
-      </c>
-      <c r="AB88" s="54">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC88" s="17"/>
@@ -6677,11 +7095,11 @@
       </c>
       <c r="Z89" s="53"/>
       <c r="AA89" s="54">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="AB89" s="54">
         <f t="shared" si="3"/>
-        <v>63</v>
-      </c>
-      <c r="AB89" s="54">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC89" s="17"/>
@@ -6724,11 +7142,11 @@
       <c r="Y90" s="53"/>
       <c r="Z90" s="53"/>
       <c r="AA90" s="54">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="AB90" s="54">
         <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="AB90" s="54">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC90" s="17"/>
@@ -6767,11 +7185,11 @@
       <c r="Y91" s="53"/>
       <c r="Z91" s="53"/>
       <c r="AA91" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB91" s="54">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB91" s="54">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC91" s="17"/>
@@ -6834,11 +7252,11 @@
         <v>5</v>
       </c>
       <c r="AA92" s="54">
+        <f t="shared" si="2"/>
+        <v>245</v>
+      </c>
+      <c r="AB92" s="54">
         <f t="shared" si="3"/>
-        <v>245</v>
-      </c>
-      <c r="AB92" s="54">
-        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AC92" s="17"/>
@@ -6893,11 +7311,11 @@
         <v>7</v>
       </c>
       <c r="AA93" s="54">
+        <f t="shared" si="2"/>
+        <v>195</v>
+      </c>
+      <c r="AB93" s="54">
         <f t="shared" si="3"/>
-        <v>195</v>
-      </c>
-      <c r="AB93" s="54">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC93" s="17"/>
@@ -6946,11 +7364,11 @@
       <c r="Y94" s="53"/>
       <c r="Z94" s="53"/>
       <c r="AA94" s="54">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="AB94" s="54">
         <f t="shared" si="3"/>
-        <v>43</v>
-      </c>
-      <c r="AB94" s="54">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC94" s="17"/>
@@ -6991,11 +7409,11 @@
       <c r="Y95" s="53"/>
       <c r="Z95" s="53"/>
       <c r="AA95" s="54">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="AB95" s="54">
         <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-      <c r="AB95" s="54">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC95" s="17"/>
@@ -7038,11 +7456,11 @@
       <c r="Y96" s="53"/>
       <c r="Z96" s="53"/>
       <c r="AA96" s="54">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="AB96" s="54">
         <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="AB96" s="54">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC96" s="17"/>
@@ -7095,11 +7513,11 @@
       </c>
       <c r="Z97" s="53"/>
       <c r="AA97" s="54">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="AB97" s="54">
         <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="AB97" s="54">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC97" s="17"/>
@@ -7154,11 +7572,11 @@
         <v>5</v>
       </c>
       <c r="AA98" s="54">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="AB98" s="54">
         <f t="shared" si="3"/>
-        <v>71</v>
-      </c>
-      <c r="AB98" s="54">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC98" s="17"/>
@@ -7207,11 +7625,11 @@
       <c r="Y99" s="53"/>
       <c r="Z99" s="53"/>
       <c r="AA99" s="54">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="AB99" s="54">
         <f t="shared" si="3"/>
-        <v>48</v>
-      </c>
-      <c r="AB99" s="54">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC99" s="17"/>
@@ -7264,11 +7682,11 @@
         <v>7</v>
       </c>
       <c r="AA100" s="54">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="AB100" s="54">
         <f t="shared" si="3"/>
-        <v>64</v>
-      </c>
-      <c r="AB100" s="54">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC100" s="17"/>
@@ -7317,11 +7735,11 @@
         <v>5</v>
       </c>
       <c r="AA101" s="54">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="AB101" s="54">
         <f t="shared" si="3"/>
-        <v>48</v>
-      </c>
-      <c r="AB101" s="54">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC101" s="17"/>
@@ -7374,11 +7792,11 @@
         <v>5</v>
       </c>
       <c r="AA102" s="54">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB102" s="54">
         <f t="shared" si="3"/>
-        <v>44</v>
-      </c>
-      <c r="AB102" s="54">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC102" s="17"/>
@@ -7429,11 +7847,11 @@
       </c>
       <c r="Z103" s="53"/>
       <c r="AA103" s="54">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="AB103" s="54">
         <f t="shared" si="3"/>
-        <v>57</v>
-      </c>
-      <c r="AB103" s="54">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC103" s="17"/>
@@ -7484,11 +7902,11 @@
       <c r="Y104" s="53"/>
       <c r="Z104" s="53"/>
       <c r="AA104" s="54">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="AB104" s="54">
         <f t="shared" si="3"/>
-        <v>160</v>
-      </c>
-      <c r="AB104" s="54">
-        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="AC104" s="17"/>
@@ -7537,11 +7955,11 @@
       <c r="Y105" s="53"/>
       <c r="Z105" s="53"/>
       <c r="AA105" s="54">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="AB105" s="54">
         <f t="shared" si="3"/>
-        <v>95</v>
-      </c>
-      <c r="AB105" s="54">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC105" s="17"/>
@@ -7590,11 +8008,11 @@
       <c r="Y106" s="53"/>
       <c r="Z106" s="53"/>
       <c r="AA106" s="54">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="AB106" s="54">
         <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="AB106" s="54">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC106" s="17"/>
@@ -7645,11 +8063,11 @@
       <c r="Y107" s="53"/>
       <c r="Z107" s="53"/>
       <c r="AA107" s="54">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+      <c r="AB107" s="54">
         <f t="shared" si="3"/>
-        <v>250</v>
-      </c>
-      <c r="AB107" s="54">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC107" s="17"/>
@@ -7696,11 +8114,11 @@
       <c r="Y108" s="53"/>
       <c r="Z108" s="53"/>
       <c r="AA108" s="54">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="AB108" s="54">
         <f t="shared" si="3"/>
-        <v>140</v>
-      </c>
-      <c r="AB108" s="54">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC108" s="17"/>
@@ -7733,11 +8151,11 @@
       <c r="Y109" s="53"/>
       <c r="Z109" s="53"/>
       <c r="AA109" s="54">
-        <f t="shared" ref="AA109:AA113" si="5">SUM(D109:N109)+Y109+Z109</f>
+        <f>SUM(D109:N109)+Y109+Z109</f>
         <v>0</v>
       </c>
       <c r="AB109" s="54">
-        <f t="shared" ref="AB109:AB113" si="6">SUM(O109:X109)</f>
+        <f>SUM(O109:X109)</f>
         <v>0</v>
       </c>
       <c r="AC109" s="17"/>
@@ -7770,11 +8188,11 @@
       <c r="Y110" s="53"/>
       <c r="Z110" s="53"/>
       <c r="AA110" s="54">
-        <f t="shared" si="5"/>
+        <f>SUM(D110:N110)+Y110+Z110</f>
         <v>0</v>
       </c>
       <c r="AB110" s="54">
-        <f t="shared" si="6"/>
+        <f>SUM(O110:X110)</f>
         <v>0</v>
       </c>
       <c r="AC110" s="17"/>
@@ -7807,11 +8225,11 @@
       <c r="Y111" s="53"/>
       <c r="Z111" s="53"/>
       <c r="AA111" s="54">
-        <f t="shared" si="5"/>
+        <f>SUM(D111:N111)+Y111+Z111</f>
         <v>0</v>
       </c>
       <c r="AB111" s="54">
-        <f t="shared" si="6"/>
+        <f>SUM(O111:X111)</f>
         <v>0</v>
       </c>
       <c r="AC111" s="17"/>
@@ -7844,11 +8262,11 @@
       <c r="Y112" s="53"/>
       <c r="Z112" s="53"/>
       <c r="AA112" s="54">
-        <f t="shared" si="5"/>
+        <f>SUM(D112:N112)+Y112+Z112</f>
         <v>0</v>
       </c>
       <c r="AB112" s="54">
-        <f t="shared" si="6"/>
+        <f>SUM(O112:X112)</f>
         <v>0</v>
       </c>
       <c r="AC112" s="17"/>
@@ -7881,11 +8299,11 @@
       <c r="Y113" s="53"/>
       <c r="Z113" s="53"/>
       <c r="AA113" s="54">
-        <f t="shared" si="5"/>
+        <f>SUM(D113:N113)+Y113+Z113</f>
         <v>0</v>
       </c>
       <c r="AB113" s="54">
-        <f t="shared" si="6"/>
+        <f>SUM(O113:X113)</f>
         <v>0</v>
       </c>
       <c r="AC113" s="17"/>
@@ -7918,11 +8336,11 @@
       <c r="Y114" s="53"/>
       <c r="Z114" s="53"/>
       <c r="AA114" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB114" s="54">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB114" s="54">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC114" s="17"/>
@@ -7955,11 +8373,11 @@
       <c r="Y115" s="53"/>
       <c r="Z115" s="53"/>
       <c r="AA115" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB115" s="54">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB115" s="54">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC115" s="17"/>
@@ -7992,11 +8410,11 @@
       <c r="Y116" s="53"/>
       <c r="Z116" s="53"/>
       <c r="AA116" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB116" s="54">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB116" s="54">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC116" s="17"/>
@@ -8029,11 +8447,11 @@
       <c r="Y117" s="53"/>
       <c r="Z117" s="53"/>
       <c r="AA117" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB117" s="54">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB117" s="54">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC117" s="17"/>
@@ -8066,11 +8484,11 @@
       <c r="Y118" s="53"/>
       <c r="Z118" s="53"/>
       <c r="AA118" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB118" s="54">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB118" s="54">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC118" s="17"/>
@@ -8103,11 +8521,11 @@
       <c r="Y119" s="53"/>
       <c r="Z119" s="53"/>
       <c r="AA119" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB119" s="54">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB119" s="54">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC119" s="17"/>
@@ -8140,11 +8558,11 @@
       <c r="Y120" s="53"/>
       <c r="Z120" s="53"/>
       <c r="AA120" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB120" s="54">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB120" s="54">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC120" s="17"/>
@@ -8177,11 +8595,11 @@
       <c r="Y121" s="53"/>
       <c r="Z121" s="53"/>
       <c r="AA121" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB121" s="54">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB121" s="54">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC121" s="17"/>
@@ -8214,11 +8632,11 @@
       <c r="Y122" s="53"/>
       <c r="Z122" s="53"/>
       <c r="AA122" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB122" s="54">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB122" s="54">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC122" s="17"/>
@@ -8251,11 +8669,11 @@
       <c r="Y123" s="53"/>
       <c r="Z123" s="53"/>
       <c r="AA123" s="54">
-        <f t="shared" ref="AA123:AA158" si="7">SUM(D123:N123)+Y123+Z123</f>
+        <f t="shared" ref="AA123:AA158" si="4">SUM(D123:N123)+Y123+Z123</f>
         <v>0</v>
       </c>
       <c r="AB123" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC123" s="17"/>
@@ -8288,11 +8706,11 @@
       <c r="Y124" s="53"/>
       <c r="Z124" s="53"/>
       <c r="AA124" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB124" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC124" s="17"/>
@@ -8325,11 +8743,11 @@
       <c r="Y125" s="53"/>
       <c r="Z125" s="53"/>
       <c r="AA125" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB125" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC125" s="17"/>
@@ -8362,11 +8780,11 @@
       <c r="Y126" s="53"/>
       <c r="Z126" s="53"/>
       <c r="AA126" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB126" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC126" s="17"/>
@@ -8399,11 +8817,11 @@
       <c r="Y127" s="53"/>
       <c r="Z127" s="53"/>
       <c r="AA127" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB127" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC127" s="17"/>
@@ -8436,11 +8854,11 @@
       <c r="Y128" s="53"/>
       <c r="Z128" s="53"/>
       <c r="AA128" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB128" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC128" s="17"/>
@@ -8473,11 +8891,11 @@
       <c r="Y129" s="53"/>
       <c r="Z129" s="53"/>
       <c r="AA129" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB129" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC129" s="17"/>
@@ -8510,11 +8928,11 @@
       <c r="Y130" s="53"/>
       <c r="Z130" s="53"/>
       <c r="AA130" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB130" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC130" s="17"/>
@@ -8547,11 +8965,11 @@
       <c r="Y131" s="53"/>
       <c r="Z131" s="53"/>
       <c r="AA131" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB131" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC131" s="17"/>
@@ -8584,11 +9002,11 @@
       <c r="Y132" s="53"/>
       <c r="Z132" s="53"/>
       <c r="AA132" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB132" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC132" s="17"/>
@@ -8621,11 +9039,11 @@
       <c r="Y133" s="53"/>
       <c r="Z133" s="53"/>
       <c r="AA133" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB133" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC133" s="17"/>
@@ -8658,11 +9076,11 @@
       <c r="Y134" s="53"/>
       <c r="Z134" s="53"/>
       <c r="AA134" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB134" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC134" s="17"/>
@@ -8695,11 +9113,11 @@
       <c r="Y135" s="53"/>
       <c r="Z135" s="53"/>
       <c r="AA135" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB135" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC135" s="17"/>
@@ -8732,11 +9150,11 @@
       <c r="Y136" s="53"/>
       <c r="Z136" s="53"/>
       <c r="AA136" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB136" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC136" s="17"/>
@@ -8769,11 +9187,11 @@
       <c r="Y137" s="53"/>
       <c r="Z137" s="53"/>
       <c r="AA137" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB137" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC137" s="17"/>
@@ -8806,11 +9224,11 @@
       <c r="Y138" s="53"/>
       <c r="Z138" s="53"/>
       <c r="AA138" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB138" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC138" s="17"/>
@@ -8843,11 +9261,11 @@
       <c r="Y139" s="53"/>
       <c r="Z139" s="53"/>
       <c r="AA139" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB139" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC139" s="17"/>
@@ -8880,11 +9298,11 @@
       <c r="Y140" s="53"/>
       <c r="Z140" s="53"/>
       <c r="AA140" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB140" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC140" s="17"/>
@@ -8917,11 +9335,11 @@
       <c r="Y141" s="53"/>
       <c r="Z141" s="53"/>
       <c r="AA141" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB141" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC141" s="17"/>
@@ -8954,11 +9372,11 @@
       <c r="Y142" s="53"/>
       <c r="Z142" s="53"/>
       <c r="AA142" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB142" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC142" s="17"/>
@@ -8991,11 +9409,11 @@
       <c r="Y143" s="53"/>
       <c r="Z143" s="53"/>
       <c r="AA143" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB143" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC143" s="17"/>
@@ -9028,11 +9446,11 @@
       <c r="Y144" s="53"/>
       <c r="Z144" s="53"/>
       <c r="AA144" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB144" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC144" s="17"/>
@@ -9065,11 +9483,11 @@
       <c r="Y145" s="53"/>
       <c r="Z145" s="53"/>
       <c r="AA145" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB145" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC145" s="17"/>
@@ -9102,11 +9520,11 @@
       <c r="Y146" s="53"/>
       <c r="Z146" s="53"/>
       <c r="AA146" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB146" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC146" s="17"/>
@@ -9139,11 +9557,11 @@
       <c r="Y147" s="53"/>
       <c r="Z147" s="53"/>
       <c r="AA147" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB147" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC147" s="17"/>
@@ -9176,11 +9594,11 @@
       <c r="Y148" s="53"/>
       <c r="Z148" s="53"/>
       <c r="AA148" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB148" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC148" s="17"/>
@@ -9213,11 +9631,11 @@
       <c r="Y149" s="53"/>
       <c r="Z149" s="53"/>
       <c r="AA149" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB149" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC149" s="17"/>
@@ -9250,11 +9668,11 @@
       <c r="Y150" s="53"/>
       <c r="Z150" s="53"/>
       <c r="AA150" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB150" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC150" s="17"/>
@@ -9287,11 +9705,11 @@
       <c r="Y151" s="53"/>
       <c r="Z151" s="53"/>
       <c r="AA151" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB151" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC151" s="17"/>
@@ -9324,11 +9742,11 @@
       <c r="Y152" s="53"/>
       <c r="Z152" s="53"/>
       <c r="AA152" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB152" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC152" s="17"/>
@@ -9361,11 +9779,11 @@
       <c r="Y153" s="53"/>
       <c r="Z153" s="53"/>
       <c r="AA153" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB153" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC153" s="17"/>
@@ -9398,11 +9816,11 @@
       <c r="Y154" s="53"/>
       <c r="Z154" s="53"/>
       <c r="AA154" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB154" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC154" s="17"/>
@@ -9435,11 +9853,11 @@
       <c r="Y155" s="53"/>
       <c r="Z155" s="53"/>
       <c r="AA155" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB155" s="54">
-        <f t="shared" ref="AB155:AB158" si="8">SUM(O155:X155)</f>
+        <f>SUM(O155:X155)</f>
         <v>0</v>
       </c>
       <c r="AC155" s="17"/>
@@ -9472,11 +9890,11 @@
       <c r="Y156" s="53"/>
       <c r="Z156" s="53"/>
       <c r="AA156" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB156" s="54">
-        <f t="shared" si="8"/>
+        <f>SUM(O156:X156)</f>
         <v>0</v>
       </c>
       <c r="AC156" s="17"/>
@@ -9509,11 +9927,11 @@
       <c r="Y157" s="53"/>
       <c r="Z157" s="53"/>
       <c r="AA157" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB157" s="54">
-        <f t="shared" si="8"/>
+        <f>SUM(O157:X157)</f>
         <v>0</v>
       </c>
       <c r="AC157" s="17"/>
@@ -9546,11 +9964,11 @@
       <c r="Y158" s="53"/>
       <c r="Z158" s="53"/>
       <c r="AA158" s="54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB158" s="54">
-        <f t="shared" si="8"/>
+        <f>SUM(O158:X158)</f>
         <v>0</v>
       </c>
       <c r="AC158" s="17"/>
@@ -9562,103 +9980,103 @@
         <v>54</v>
       </c>
       <c r="D159" s="28">
-        <f t="shared" ref="D159:AB159" si="9">SUM(D2:D158)</f>
+        <f t="shared" ref="D159:AB159" si="5">SUM(D2:D158)</f>
         <v>2606</v>
       </c>
       <c r="E159" s="49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F159" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>407</v>
       </c>
       <c r="G159" s="31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>484</v>
       </c>
       <c r="H159" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>1666</v>
       </c>
       <c r="I159" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>308</v>
       </c>
       <c r="J159" s="67">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>1504</v>
       </c>
       <c r="K159" s="67">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="L159" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>800</v>
       </c>
       <c r="M159" s="51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="N159" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="O159" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="P159" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
       <c r="Q159" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="R159" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S159" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T159" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U159" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="V159" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W159" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X159" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y159" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>187</v>
       </c>
       <c r="Z159" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>199</v>
       </c>
       <c r="AA159" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>8281</v>
       </c>
       <c r="AB159" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>96</v>
       </c>
       <c r="AC159" s="29"/>
@@ -9755,102 +10173,102 @@
       <c r="A162" s="36">
         <v>1</v>
       </c>
-      <c r="B162" s="157" t="s">
+      <c r="B162" s="181" t="s">
         <v>37</v>
       </c>
       <c r="C162" s="83" t="s">
         <v>22</v>
       </c>
       <c r="D162" s="40">
-        <f t="shared" ref="D162:M171" si="10">SUMIF($C$2:$C$158,$C162,D$2:D$158)</f>
+        <f t="shared" ref="D162:M171" si="6">SUMIF($C$2:$C$158,$C162,D$2:D$158)</f>
         <v>116</v>
       </c>
       <c r="E162" s="48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F162" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="G162" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="H162" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="I162" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="J162" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="K162" s="104">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L162" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="M162" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N162" s="37">
-        <f t="shared" ref="N162:Z171" si="11">SUMIF($C$2:$C$158,$C162,N$2:N$158)</f>
+        <f t="shared" ref="N162:Z171" si="7">SUMIF($C$2:$C$158,$C162,N$2:N$158)</f>
         <v>0</v>
       </c>
       <c r="O162" s="98">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P162" s="46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q162" s="46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R162" s="46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S162" s="46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T162" s="46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U162" s="46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V162" s="46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W162" s="46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X162" s="46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y162" s="46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="Z162" s="46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="AA162" s="38">
@@ -9871,112 +10289,112 @@
       <c r="A163" s="36">
         <v>2</v>
       </c>
-      <c r="B163" s="157"/>
+      <c r="B163" s="181"/>
       <c r="C163" s="83" t="s">
         <v>24</v>
       </c>
       <c r="D163" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>86</v>
       </c>
       <c r="E163" s="48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F163" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="G163" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="H163" s="43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="I163" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J163" s="44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="K163" s="104">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L163" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="M163" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N163" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O163" s="98">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P163" s="46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q163" s="46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R163" s="46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S163" s="46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T163" s="46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U163" s="46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V163" s="46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W163" s="46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X163" s="46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y163" s="46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="Z163" s="46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="AA163" s="38">
-        <f t="shared" ref="AA163:AA193" si="12">SUBTOTAL(9,D163:N163)+Y163+Z163</f>
+        <f t="shared" ref="AA163:AA193" si="8">SUBTOTAL(9,D163:N163)+Y163+Z163</f>
         <v>234</v>
       </c>
       <c r="AB163" s="38">
-        <f t="shared" ref="AB163:AB193" si="13">SUBTOTAL(9,O163:X163)</f>
+        <f t="shared" ref="AB163:AB193" si="9">SUBTOTAL(9,O163:X163)</f>
         <v>0</v>
       </c>
       <c r="AC163" s="39">
-        <f t="shared" ref="AC163:AC182" si="14">SUM(D163:N163)*0.73+(O163*1.5)+(SUM(P163:U163)*1)+(SUM(Y163:Z163)*0.6305)</f>
+        <f t="shared" ref="AC163:AC182" si="10">SUM(D163:N163)*0.73+(O163*1.5)+(SUM(P163:U163)*1)+(SUM(Y163:Z163)*0.6305)</f>
         <v>169.42699999999999</v>
       </c>
     </row>
@@ -9984,112 +10402,112 @@
       <c r="A164" s="36">
         <v>3</v>
       </c>
-      <c r="B164" s="157"/>
+      <c r="B164" s="181"/>
       <c r="C164" s="83" t="s">
         <v>25</v>
       </c>
       <c r="D164" s="40">
+        <f t="shared" si="6"/>
+        <v>101</v>
+      </c>
+      <c r="E164" s="48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F164" s="41">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="G164" s="42">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="H164" s="43">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="I164" s="13">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J164" s="44">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="K164" s="104">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L164" s="45">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="M164" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N164" s="37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O164" s="98">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P164" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q164" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R164" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S164" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T164" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U164" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V164" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W164" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X164" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y164" s="46">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="Z164" s="46">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="AA164" s="38">
+        <f t="shared" si="8"/>
+        <v>257</v>
+      </c>
+      <c r="AB164" s="38">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC164" s="39">
         <f t="shared" si="10"/>
-        <v>101</v>
-      </c>
-      <c r="E164" s="48">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F164" s="41">
-        <f t="shared" si="10"/>
-        <v>11</v>
-      </c>
-      <c r="G164" s="42">
-        <f t="shared" si="10"/>
-        <v>18</v>
-      </c>
-      <c r="H164" s="43">
-        <f t="shared" si="10"/>
-        <v>40</v>
-      </c>
-      <c r="I164" s="13">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="J164" s="44">
-        <f t="shared" si="10"/>
-        <v>25</v>
-      </c>
-      <c r="K164" s="104">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L164" s="45">
-        <f t="shared" si="10"/>
-        <v>30</v>
-      </c>
-      <c r="M164" s="50">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N164" s="37">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O164" s="98">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P164" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Q164" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="R164" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S164" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="T164" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U164" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V164" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="W164" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X164" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y164" s="46">
-        <f t="shared" si="11"/>
-        <v>19</v>
-      </c>
-      <c r="Z164" s="46">
-        <f t="shared" si="11"/>
-        <v>9</v>
-      </c>
-      <c r="AA164" s="38">
-        <f t="shared" si="12"/>
-        <v>257</v>
-      </c>
-      <c r="AB164" s="38">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC164" s="39">
-        <f t="shared" si="14"/>
         <v>184.82399999999998</v>
       </c>
     </row>
@@ -10097,112 +10515,112 @@
       <c r="A165" s="36">
         <v>4</v>
       </c>
-      <c r="B165" s="157"/>
+      <c r="B165" s="181"/>
       <c r="C165" s="83" t="s">
         <v>27</v>
       </c>
       <c r="D165" s="40">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="E165" s="48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F165" s="41">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G165" s="42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H165" s="43">
+        <f t="shared" si="6"/>
+        <v>250</v>
+      </c>
+      <c r="I165" s="13">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="J165" s="44">
+        <f t="shared" si="6"/>
+        <v>245</v>
+      </c>
+      <c r="K165" s="104">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L165" s="45">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="M165" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N165" s="37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O165" s="98">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P165" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q165" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R165" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S165" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T165" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U165" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V165" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W165" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X165" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y165" s="46">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="Z165" s="46">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="AA165" s="38">
+        <f t="shared" si="8"/>
+        <v>640</v>
+      </c>
+      <c r="AB165" s="38">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC165" s="39">
         <f t="shared" si="10"/>
-        <v>50</v>
-      </c>
-      <c r="E165" s="48">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F165" s="41">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G165" s="42">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H165" s="43">
-        <f t="shared" si="10"/>
-        <v>250</v>
-      </c>
-      <c r="I165" s="13">
-        <f t="shared" si="10"/>
-        <v>40</v>
-      </c>
-      <c r="J165" s="44">
-        <f t="shared" si="10"/>
-        <v>245</v>
-      </c>
-      <c r="K165" s="104">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L165" s="45">
-        <f t="shared" si="10"/>
-        <v>35</v>
-      </c>
-      <c r="M165" s="50">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N165" s="37">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O165" s="98">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P165" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Q165" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="R165" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S165" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="T165" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U165" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V165" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="W165" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X165" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y165" s="46">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-      <c r="Z165" s="46">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-      <c r="AA165" s="38">
-        <f t="shared" si="12"/>
-        <v>640</v>
-      </c>
-      <c r="AB165" s="38">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC165" s="39">
-        <f t="shared" si="14"/>
         <v>465.21</v>
       </c>
     </row>
@@ -10210,112 +10628,112 @@
       <c r="A166" s="36">
         <v>5</v>
       </c>
-      <c r="B166" s="157"/>
+      <c r="B166" s="181"/>
       <c r="C166" s="83" t="s">
         <v>41</v>
       </c>
       <c r="D166" s="40">
+        <f t="shared" si="6"/>
+        <v>101</v>
+      </c>
+      <c r="E166" s="48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F166" s="41">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="G166" s="42">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="H166" s="43">
+        <f t="shared" si="6"/>
+        <v>42</v>
+      </c>
+      <c r="I166" s="13">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="J166" s="44">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="K166" s="104">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L166" s="45">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="M166" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N166" s="37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O166" s="98">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P166" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q166" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R166" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S166" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T166" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U166" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V166" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W166" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X166" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y166" s="46">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="Z166" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA166" s="38">
+        <f t="shared" si="8"/>
+        <v>261</v>
+      </c>
+      <c r="AB166" s="38">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC166" s="39">
         <f t="shared" si="10"/>
-        <v>101</v>
-      </c>
-      <c r="E166" s="48">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F166" s="41">
-        <f t="shared" si="10"/>
-        <v>19</v>
-      </c>
-      <c r="G166" s="42">
-        <f t="shared" si="10"/>
-        <v>22</v>
-      </c>
-      <c r="H166" s="43">
-        <f t="shared" si="10"/>
-        <v>42</v>
-      </c>
-      <c r="I166" s="13">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="J166" s="44">
-        <f t="shared" si="10"/>
-        <v>36</v>
-      </c>
-      <c r="K166" s="104">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L166" s="45">
-        <f t="shared" si="10"/>
-        <v>21</v>
-      </c>
-      <c r="M166" s="50">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N166" s="37">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O166" s="98">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P166" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Q166" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="R166" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S166" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="T166" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U166" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V166" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="W166" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X166" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y166" s="46">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-      <c r="Z166" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA166" s="38">
-        <f t="shared" si="12"/>
-        <v>261</v>
-      </c>
-      <c r="AB166" s="38">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC166" s="39">
-        <f t="shared" si="14"/>
         <v>189.535</v>
       </c>
     </row>
@@ -10323,112 +10741,112 @@
       <c r="A167" s="36">
         <v>6</v>
       </c>
-      <c r="B167" s="157"/>
+      <c r="B167" s="181"/>
       <c r="C167" s="83" t="s">
         <v>14</v>
       </c>
       <c r="D167" s="40">
+        <f t="shared" si="6"/>
+        <v>67</v>
+      </c>
+      <c r="E167" s="48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F167" s="41">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="G167" s="42">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="H167" s="43">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="I167" s="13">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="J167" s="44">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="K167" s="104">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L167" s="45">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="M167" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N167" s="37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O167" s="98">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P167" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q167" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R167" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S167" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T167" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U167" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V167" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W167" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X167" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y167" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z167" s="46">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="AA167" s="38">
+        <f t="shared" si="8"/>
+        <v>141</v>
+      </c>
+      <c r="AB167" s="38">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC167" s="39">
         <f t="shared" si="10"/>
-        <v>67</v>
-      </c>
-      <c r="E167" s="48">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F167" s="41">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="G167" s="42">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="H167" s="43">
-        <f t="shared" si="10"/>
-        <v>23</v>
-      </c>
-      <c r="I167" s="13">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="J167" s="44">
-        <f t="shared" si="10"/>
-        <v>13</v>
-      </c>
-      <c r="K167" s="104">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L167" s="45">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="M167" s="50">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N167" s="37">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O167" s="98">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P167" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Q167" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="R167" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S167" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="T167" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U167" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V167" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="W167" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X167" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y167" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Z167" s="46">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-      <c r="AA167" s="38">
-        <f t="shared" si="12"/>
-        <v>141</v>
-      </c>
-      <c r="AB167" s="38">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC167" s="39">
-        <f t="shared" si="14"/>
         <v>101.935</v>
       </c>
     </row>
@@ -10436,112 +10854,112 @@
       <c r="A168" s="36">
         <v>7</v>
       </c>
-      <c r="B168" s="157"/>
+      <c r="B168" s="181"/>
       <c r="C168" s="83" t="s">
         <v>29</v>
       </c>
       <c r="D168" s="40">
+        <f t="shared" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="E168" s="48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F168" s="41">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G168" s="42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H168" s="43">
+        <f t="shared" si="6"/>
+        <v>150</v>
+      </c>
+      <c r="I168" s="13">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="J168" s="44">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="K168" s="104">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L168" s="45">
+        <f t="shared" si="6"/>
+        <v>57</v>
+      </c>
+      <c r="M168" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N168" s="37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O168" s="98">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P168" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q168" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R168" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S168" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T168" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U168" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V168" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W168" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X168" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y168" s="46">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="Z168" s="46">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="AA168" s="38">
+        <f t="shared" si="8"/>
+        <v>530</v>
+      </c>
+      <c r="AB168" s="38">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC168" s="39">
         <f t="shared" si="10"/>
-        <v>52</v>
-      </c>
-      <c r="E168" s="48">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F168" s="41">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G168" s="42">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H168" s="43">
-        <f t="shared" si="10"/>
-        <v>150</v>
-      </c>
-      <c r="I168" s="13">
-        <f t="shared" si="10"/>
-        <v>40</v>
-      </c>
-      <c r="J168" s="44">
-        <f t="shared" si="10"/>
-        <v>200</v>
-      </c>
-      <c r="K168" s="104">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L168" s="45">
-        <f t="shared" si="10"/>
-        <v>57</v>
-      </c>
-      <c r="M168" s="50">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N168" s="37">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O168" s="98">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P168" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Q168" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="R168" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S168" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="T168" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U168" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V168" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="W168" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X168" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y168" s="46">
-        <f t="shared" si="11"/>
-        <v>18</v>
-      </c>
-      <c r="Z168" s="46">
-        <f t="shared" si="11"/>
-        <v>13</v>
-      </c>
-      <c r="AA168" s="38">
-        <f t="shared" si="12"/>
-        <v>530</v>
-      </c>
-      <c r="AB168" s="38">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC168" s="39">
-        <f t="shared" si="14"/>
         <v>383.81549999999999</v>
       </c>
     </row>
@@ -10549,112 +10967,112 @@
       <c r="A169" s="36">
         <v>8</v>
       </c>
-      <c r="B169" s="157"/>
+      <c r="B169" s="181"/>
       <c r="C169" s="83" t="s">
         <v>31</v>
       </c>
       <c r="D169" s="40">
+        <f t="shared" si="6"/>
+        <v>79</v>
+      </c>
+      <c r="E169" s="48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F169" s="41">
+        <f t="shared" si="6"/>
+        <v>37</v>
+      </c>
+      <c r="G169" s="42">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="H169" s="43">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="I169" s="13">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="J169" s="44">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="K169" s="104">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L169" s="45">
+        <f t="shared" si="6"/>
+        <v>43</v>
+      </c>
+      <c r="M169" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N169" s="37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O169" s="98">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P169" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q169" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R169" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S169" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T169" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U169" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V169" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W169" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X169" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y169" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z169" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA169" s="38">
+        <f t="shared" si="8"/>
+        <v>237</v>
+      </c>
+      <c r="AB169" s="38">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC169" s="39">
         <f t="shared" si="10"/>
-        <v>79</v>
-      </c>
-      <c r="E169" s="48">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F169" s="41">
-        <f t="shared" si="10"/>
-        <v>37</v>
-      </c>
-      <c r="G169" s="42">
-        <f t="shared" si="10"/>
-        <v>25</v>
-      </c>
-      <c r="H169" s="43">
-        <f t="shared" si="10"/>
-        <v>20</v>
-      </c>
-      <c r="I169" s="13">
-        <f t="shared" si="10"/>
-        <v>13</v>
-      </c>
-      <c r="J169" s="44">
-        <f t="shared" si="10"/>
-        <v>20</v>
-      </c>
-      <c r="K169" s="104">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L169" s="45">
-        <f t="shared" si="10"/>
-        <v>43</v>
-      </c>
-      <c r="M169" s="50">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N169" s="37">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O169" s="98">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P169" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Q169" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="R169" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S169" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="T169" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U169" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V169" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="W169" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X169" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y169" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Z169" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA169" s="38">
-        <f t="shared" si="12"/>
-        <v>237</v>
-      </c>
-      <c r="AB169" s="38">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC169" s="39">
-        <f t="shared" si="14"/>
         <v>173.01</v>
       </c>
     </row>
@@ -10662,112 +11080,112 @@
       <c r="A170" s="36">
         <v>9</v>
       </c>
-      <c r="B170" s="157"/>
+      <c r="B170" s="181"/>
       <c r="C170" s="83" t="s">
         <v>20</v>
       </c>
       <c r="D170" s="40">
+        <f t="shared" si="6"/>
+        <v>390</v>
+      </c>
+      <c r="E170" s="48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F170" s="41">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="G170" s="42">
+        <f t="shared" si="6"/>
+        <v>37</v>
+      </c>
+      <c r="H170" s="43">
+        <f t="shared" si="6"/>
+        <v>150</v>
+      </c>
+      <c r="I170" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J170" s="44">
+        <f t="shared" si="6"/>
+        <v>105</v>
+      </c>
+      <c r="K170" s="104">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L170" s="45">
+        <f t="shared" si="6"/>
+        <v>105</v>
+      </c>
+      <c r="M170" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N170" s="37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O170" s="98">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="P170" s="46">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="Q170" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R170" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S170" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T170" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U170" s="46">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="V170" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W170" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X170" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y170" s="46">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
+      <c r="Z170" s="46">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="AA170" s="38">
+        <f t="shared" si="8"/>
+        <v>860</v>
+      </c>
+      <c r="AB170" s="38">
+        <f t="shared" si="9"/>
+        <v>39</v>
+      </c>
+      <c r="AC170" s="39">
         <f t="shared" si="10"/>
-        <v>390</v>
-      </c>
-      <c r="E170" s="48">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F170" s="41">
-        <f t="shared" si="10"/>
-        <v>23</v>
-      </c>
-      <c r="G170" s="42">
-        <f t="shared" si="10"/>
-        <v>37</v>
-      </c>
-      <c r="H170" s="43">
-        <f t="shared" si="10"/>
-        <v>150</v>
-      </c>
-      <c r="I170" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J170" s="44">
-        <f t="shared" si="10"/>
-        <v>105</v>
-      </c>
-      <c r="K170" s="104">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L170" s="45">
-        <f t="shared" si="10"/>
-        <v>105</v>
-      </c>
-      <c r="M170" s="50">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N170" s="37">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O170" s="98">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-      <c r="P170" s="46">
-        <f t="shared" si="11"/>
-        <v>24</v>
-      </c>
-      <c r="Q170" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="R170" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S170" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="T170" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U170" s="46">
-        <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="V170" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="W170" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X170" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y170" s="46">
-        <f t="shared" si="11"/>
-        <v>23</v>
-      </c>
-      <c r="Z170" s="46">
-        <f t="shared" si="11"/>
-        <v>27</v>
-      </c>
-      <c r="AA170" s="38">
-        <f t="shared" si="12"/>
-        <v>860</v>
-      </c>
-      <c r="AB170" s="38">
-        <f t="shared" si="13"/>
-        <v>39</v>
-      </c>
-      <c r="AC170" s="39">
-        <f t="shared" si="14"/>
         <v>666.82499999999993</v>
       </c>
     </row>
@@ -10775,112 +11193,112 @@
       <c r="A171" s="36">
         <v>10</v>
       </c>
-      <c r="B171" s="157"/>
+      <c r="B171" s="181"/>
       <c r="C171" s="83" t="s">
         <v>15</v>
       </c>
       <c r="D171" s="40">
+        <f t="shared" si="6"/>
+        <v>99</v>
+      </c>
+      <c r="E171" s="48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F171" s="41">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="G171" s="42">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="H171" s="43">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="I171" s="13">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="J171" s="44">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="K171" s="104">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L171" s="45">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="M171" s="50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N171" s="37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O171" s="98">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P171" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q171" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R171" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S171" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T171" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U171" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V171" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W171" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X171" s="46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y171" s="46">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="Z171" s="46">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="AA171" s="38">
+        <f t="shared" si="8"/>
+        <v>275</v>
+      </c>
+      <c r="AB171" s="38">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC171" s="39">
         <f t="shared" si="10"/>
-        <v>99</v>
-      </c>
-      <c r="E171" s="48">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F171" s="41">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="G171" s="42">
-        <f t="shared" si="10"/>
-        <v>29</v>
-      </c>
-      <c r="H171" s="43">
-        <f t="shared" si="10"/>
-        <v>60</v>
-      </c>
-      <c r="I171" s="13">
-        <f t="shared" si="10"/>
-        <v>11</v>
-      </c>
-      <c r="J171" s="44">
-        <f t="shared" si="10"/>
-        <v>22</v>
-      </c>
-      <c r="K171" s="104">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L171" s="45">
-        <f t="shared" si="10"/>
-        <v>15</v>
-      </c>
-      <c r="M171" s="50">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N171" s="37">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O171" s="98">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P171" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Q171" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="R171" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S171" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="T171" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U171" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V171" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="W171" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X171" s="46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y171" s="46">
-        <f t="shared" si="11"/>
-        <v>19</v>
-      </c>
-      <c r="Z171" s="46">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-      <c r="AA171" s="38">
-        <f t="shared" si="12"/>
-        <v>275</v>
-      </c>
-      <c r="AB171" s="38">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC171" s="39">
-        <f t="shared" si="14"/>
         <v>197.86449999999999</v>
       </c>
     </row>
@@ -10888,112 +11306,112 @@
       <c r="A172" s="36">
         <v>11</v>
       </c>
-      <c r="B172" s="157"/>
+      <c r="B172" s="181"/>
       <c r="C172" s="83" t="s">
         <v>18</v>
       </c>
       <c r="D172" s="40">
-        <f t="shared" ref="D172:M182" si="15">SUMIF($C$2:$C$158,$C172,D$2:D$158)</f>
+        <f t="shared" ref="D172:M182" si="11">SUMIF($C$2:$C$158,$C172,D$2:D$158)</f>
         <v>77</v>
       </c>
       <c r="E172" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F172" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>65</v>
       </c>
       <c r="G172" s="42">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>55</v>
       </c>
       <c r="H172" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>195</v>
       </c>
       <c r="I172" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>108</v>
       </c>
       <c r="J172" s="44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>500</v>
       </c>
       <c r="K172" s="104">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L172" s="45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="M172" s="50">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N172" s="37">
-        <f t="shared" ref="N172:Z182" si="16">SUMIF($C$2:$C$158,$C172,N$2:N$158)</f>
+        <f t="shared" ref="N172:Z182" si="12">SUMIF($C$2:$C$158,$C172,N$2:N$158)</f>
         <v>0</v>
       </c>
       <c r="O172" s="98">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="P172" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="Q172" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="R172" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S172" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T172" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U172" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="V172" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W172" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X172" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Y172" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z172" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>18</v>
       </c>
       <c r="AA172" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1118</v>
       </c>
       <c r="AB172" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>57</v>
       </c>
       <c r="AC172" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>877.34900000000005</v>
       </c>
     </row>
@@ -11001,112 +11419,112 @@
       <c r="A173" s="36">
         <v>12</v>
       </c>
-      <c r="B173" s="157"/>
+      <c r="B173" s="181"/>
       <c r="C173" s="83" t="s">
         <v>13</v>
       </c>
       <c r="D173" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>95</v>
       </c>
       <c r="E173" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F173" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>22</v>
       </c>
       <c r="G173" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="H173" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="I173" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J173" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="K173" s="104">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L173" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="M173" s="50">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N173" s="37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O173" s="98">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P173" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q173" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R173" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S173" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T173" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U173" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V173" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W173" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X173" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Y173" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="Z173" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="AA173" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>196</v>
       </c>
       <c r="AB173" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AC173" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>141.78649999999999</v>
       </c>
     </row>
@@ -11114,112 +11532,112 @@
       <c r="A174" s="36">
         <v>13</v>
       </c>
-      <c r="B174" s="157"/>
+      <c r="B174" s="181"/>
       <c r="C174" s="84" t="s">
         <v>23</v>
       </c>
       <c r="D174" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>121</v>
       </c>
       <c r="E174" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F174" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="G174" s="42">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>24</v>
       </c>
       <c r="H174" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>66</v>
       </c>
       <c r="I174" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="J174" s="44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="K174" s="104">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L174" s="45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="M174" s="50">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N174" s="37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O174" s="98">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P174" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q174" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R174" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S174" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T174" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U174" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V174" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W174" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X174" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Y174" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="Z174" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="AA174" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>288</v>
       </c>
       <c r="AB174" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AC174" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>207.65299999999999</v>
       </c>
     </row>
@@ -11227,112 +11645,112 @@
       <c r="A175" s="36">
         <v>14</v>
       </c>
-      <c r="B175" s="157"/>
+      <c r="B175" s="181"/>
       <c r="C175" s="85" t="s">
         <v>28</v>
       </c>
       <c r="D175" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
       <c r="E175" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F175" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="G175" s="42">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
       <c r="H175" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
       <c r="I175" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="J175" s="44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="K175" s="104">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L175" s="45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="M175" s="50">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N175" s="37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O175" s="98">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P175" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q175" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R175" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S175" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T175" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U175" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V175" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W175" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X175" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Y175" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="Z175" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="AA175" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>165</v>
       </c>
       <c r="AB175" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AC175" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>117.465</v>
       </c>
     </row>
@@ -11340,112 +11758,112 @@
       <c r="A176" s="36">
         <v>15</v>
       </c>
-      <c r="B176" s="157"/>
+      <c r="B176" s="181"/>
       <c r="C176" s="84" t="s">
         <v>26</v>
       </c>
       <c r="D176" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>85</v>
       </c>
       <c r="E176" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F176" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="G176" s="42">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
       <c r="H176" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>64</v>
       </c>
       <c r="I176" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J176" s="44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="K176" s="104">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L176" s="45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="M176" s="50">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N176" s="37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O176" s="98">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P176" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q176" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R176" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S176" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T176" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U176" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V176" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W176" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X176" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Y176" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z176" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="AA176" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>215</v>
       </c>
       <c r="AB176" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AC176" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>156.2535</v>
       </c>
     </row>
@@ -11453,112 +11871,112 @@
       <c r="A177" s="36">
         <v>16</v>
       </c>
-      <c r="B177" s="157"/>
+      <c r="B177" s="181"/>
       <c r="C177" s="83" t="s">
         <v>17</v>
       </c>
       <c r="D177" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="E177" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F177" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
       <c r="G177" s="42">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="H177" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>70</v>
       </c>
       <c r="I177" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="J177" s="44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="K177" s="104">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L177" s="45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="M177" s="50">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N177" s="37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O177" s="98">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P177" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q177" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R177" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S177" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T177" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U177" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V177" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W177" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X177" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Y177" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z177" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA177" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>288</v>
       </c>
       <c r="AB177" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AC177" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>210.24</v>
       </c>
     </row>
@@ -11566,112 +11984,112 @@
       <c r="A178" s="36">
         <v>17</v>
       </c>
-      <c r="B178" s="157"/>
+      <c r="B178" s="181"/>
       <c r="C178" s="83" t="s">
         <v>16</v>
       </c>
       <c r="D178" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="E178" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F178" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="G178" s="42">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="H178" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>36</v>
       </c>
       <c r="I178" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="J178" s="44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="K178" s="104">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L178" s="45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="M178" s="50">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N178" s="37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O178" s="98">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P178" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q178" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R178" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S178" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T178" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U178" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V178" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W178" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X178" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Y178" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z178" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA178" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>119</v>
       </c>
       <c r="AB178" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AC178" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>86.87</v>
       </c>
     </row>
@@ -11679,112 +12097,112 @@
       <c r="A179" s="36">
         <v>18</v>
       </c>
-      <c r="B179" s="157"/>
+      <c r="B179" s="181"/>
       <c r="C179" s="84" t="s">
         <v>60</v>
       </c>
       <c r="D179" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>168</v>
       </c>
       <c r="E179" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F179" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>23</v>
       </c>
       <c r="G179" s="42">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="H179" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>104</v>
       </c>
       <c r="I179" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
       <c r="J179" s="44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>47</v>
       </c>
       <c r="K179" s="104">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L179" s="45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="M179" s="50">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N179" s="37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O179" s="98">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P179" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q179" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R179" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S179" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T179" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U179" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V179" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W179" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X179" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Y179" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="Z179" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="AA179" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>458</v>
       </c>
       <c r="AB179" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AC179" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>331.65350000000001</v>
       </c>
     </row>
@@ -11792,112 +12210,112 @@
       <c r="A180" s="36">
         <v>19</v>
       </c>
-      <c r="B180" s="157"/>
+      <c r="B180" s="181"/>
       <c r="C180" s="84" t="s">
         <v>59</v>
       </c>
       <c r="D180" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="E180" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F180" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="G180" s="42">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
       <c r="H180" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>65</v>
       </c>
       <c r="I180" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="J180" s="44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>26</v>
       </c>
       <c r="K180" s="104">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L180" s="45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
       <c r="M180" s="50">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N180" s="37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O180" s="98">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P180" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q180" s="80">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R180" s="80">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S180" s="80">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T180" s="80">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U180" s="80">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V180" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W180" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X180" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Y180" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
       <c r="Z180" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="AA180" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>273</v>
       </c>
       <c r="AB180" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AC180" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>197.39949999999999</v>
       </c>
     </row>
@@ -11905,112 +12323,112 @@
       <c r="A181" s="36">
         <v>20</v>
       </c>
-      <c r="B181" s="157"/>
+      <c r="B181" s="181"/>
       <c r="C181" s="83" t="s">
         <v>47</v>
       </c>
       <c r="D181" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>65</v>
       </c>
       <c r="E181" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F181" s="41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G181" s="42">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H181" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>60</v>
       </c>
       <c r="I181" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J181" s="44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>35</v>
       </c>
       <c r="K181" s="104">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L181" s="45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="M181" s="50">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N181" s="37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O181" s="98">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P181" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q181" s="80">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R181" s="80">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S181" s="80">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T181" s="80">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U181" s="80">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V181" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W181" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X181" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Y181" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z181" s="46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA181" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="AB181" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AC181" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>146</v>
       </c>
     </row>
@@ -12018,112 +12436,112 @@
       <c r="A182" s="130">
         <v>21</v>
       </c>
-      <c r="B182" s="158"/>
+      <c r="B182" s="182"/>
       <c r="C182" s="131" t="s">
         <v>55</v>
       </c>
       <c r="D182" s="132">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="E182" s="133">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F182" s="134">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="G182" s="135">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="H182" s="136">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="I182" s="137">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J182" s="138">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="K182" s="139">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L182" s="140">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="M182" s="141">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N182" s="142">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O182" s="143">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P182" s="144">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q182" s="145">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R182" s="145">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S182" s="145">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T182" s="145">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U182" s="145">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V182" s="145">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W182" s="145">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X182" s="145">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Y182" s="145">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="Z182" s="145">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="AA182" s="146">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>260</v>
       </c>
       <c r="AB182" s="146">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AC182" s="147">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>187.81</v>
       </c>
       <c r="AD182">
@@ -12140,103 +12558,103 @@
         <v>39</v>
       </c>
       <c r="D183" s="114">
-        <f t="shared" ref="D183:N189" si="17">SUMIF($C$2:$C$168,$C183&amp;"*",D$2:D$168)</f>
+        <f t="shared" ref="D183:N189" si="13">SUMIF($C$2:$C$168,$C183&amp;"*",D$2:D$168)</f>
         <v>160</v>
       </c>
       <c r="E183" s="115">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F183" s="116">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="G183" s="117">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="H183" s="118">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="I183" s="119">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J183" s="120">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="K183" s="121">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L183" s="122">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>27</v>
       </c>
       <c r="M183" s="123">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N183" s="124">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O183" s="125">
-        <f t="shared" ref="O183:O193" si="18">SUMIF($C$2:$C$158,$C183&amp;"*",O$2:O$158)</f>
+        <f t="shared" ref="O183:O193" si="14">SUMIF($C$2:$C$158,$C183&amp;"*",O$2:O$158)</f>
         <v>0</v>
       </c>
       <c r="P183" s="126">
-        <f t="shared" ref="P183:Z189" si="19">SUMIF($C$2:$C$168,$C183&amp;"*",P$2:P$168)</f>
+        <f t="shared" ref="P183:Z189" si="15">SUMIF($C$2:$C$168,$C183&amp;"*",P$2:P$168)</f>
         <v>0</v>
       </c>
       <c r="Q183" s="127">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R183" s="127">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="S183" s="127">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T183" s="127">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U183" s="127">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V183" s="127">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="W183" s="127">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X183" s="127">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y183" s="127">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Z183" s="127">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AA183" s="128">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>262</v>
       </c>
       <c r="AB183" s="128">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AC183" s="129">
@@ -12253,103 +12671,103 @@
         <v>50</v>
       </c>
       <c r="D184" s="40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>110</v>
       </c>
       <c r="E184" s="48">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F184" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="G184" s="42">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="H184" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="I184" s="87">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J184" s="44">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K184" s="101">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="L184" s="88">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>80</v>
       </c>
       <c r="M184" s="89">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>50</v>
       </c>
       <c r="N184" s="90">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>50</v>
       </c>
       <c r="O184" s="98">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P184" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q184" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R184" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="S184" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T184" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U184" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V184" s="80">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="W184" s="80">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X184" s="80">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y184" s="80">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Z184" s="80">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AA184" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>390</v>
       </c>
       <c r="AB184" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AC184" s="39">
@@ -12366,103 +12784,103 @@
         <v>21</v>
       </c>
       <c r="D185" s="40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E185" s="86">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F185" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G185" s="42">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H185" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I185" s="87">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J185" s="44">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K185" s="101">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L185" s="88">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M185" s="89">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N185" s="90">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O185" s="98">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P185" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q185" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R185" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="S185" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T185" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U185" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V185" s="80">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="W185" s="80">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X185" s="80">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y185" s="80">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Z185" s="80">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AA185" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB185" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AC185" s="39">
@@ -12479,103 +12897,103 @@
         <v>30</v>
       </c>
       <c r="D186" s="40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E186" s="86">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F186" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G186" s="42">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H186" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I186" s="87">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J186" s="44">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K186" s="101">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L186" s="88">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M186" s="89">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N186" s="90">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O186" s="98">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P186" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q186" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R186" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="S186" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T186" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U186" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V186" s="80">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="W186" s="80">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X186" s="80">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y186" s="80">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Z186" s="80">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AA186" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB186" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AC186" s="39">
@@ -12592,103 +13010,103 @@
         <v>19</v>
       </c>
       <c r="D187" s="40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>50</v>
       </c>
       <c r="E187" s="86">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F187" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="G187" s="42">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H187" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="I187" s="87">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J187" s="44">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K187" s="101">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L187" s="88">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M187" s="89">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N187" s="90">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O187" s="98">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P187" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q187" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R187" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="S187" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T187" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U187" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V187" s="80">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="W187" s="80">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X187" s="80">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y187" s="80">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Z187" s="80">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AA187" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
       <c r="AB187" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AC187" s="39">
@@ -12705,103 +13123,103 @@
         <v>40</v>
       </c>
       <c r="D188" s="40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>80</v>
       </c>
       <c r="E188" s="86">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F188" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G188" s="42">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H188" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="I188" s="87">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J188" s="44">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K188" s="101">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L188" s="88">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M188" s="89">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N188" s="90">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O188" s="98">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P188" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q188" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R188" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="S188" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T188" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U188" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V188" s="80">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="W188" s="80">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X188" s="80">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y188" s="80">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Z188" s="80">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AA188" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>110</v>
       </c>
       <c r="AB188" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AC188" s="39">
@@ -12818,99 +13236,99 @@
         <v>46</v>
       </c>
       <c r="D189" s="40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E189" s="86">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F189" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G189" s="42">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H189" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I189" s="87">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J189" s="44">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K189" s="101">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L189" s="88">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M189" s="89">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N189" s="90">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O189" s="98">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P189" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q189" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R189" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="S189" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T189" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U189" s="46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V189" s="80">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="W189" s="80">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X189" s="80">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y189" s="80">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Z189" s="80">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AA189" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB189" s="38">
@@ -12931,103 +13349,103 @@
         <v>52</v>
       </c>
       <c r="D190" s="40">
-        <f t="shared" ref="D190:N193" si="20">SUMIF($C$2:$C$168,$C190&amp;"*",D$2:D$168)</f>
+        <f t="shared" ref="D190:N193" si="16">SUMIF($C$2:$C$168,$C190&amp;"*",D$2:D$168)</f>
         <v>0</v>
       </c>
       <c r="E190" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F190" s="41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G190" s="42">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H190" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I190" s="87">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J190" s="44">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K190" s="101">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L190" s="88">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M190" s="89">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N190" s="90">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O190" s="98">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P190" s="46">
-        <f t="shared" ref="P190:Z193" si="21">SUMIF($C$2:$C$168,$C190&amp;"*",P$2:P$168)</f>
+        <f t="shared" ref="P190:Z193" si="17">SUMIF($C$2:$C$168,$C190&amp;"*",P$2:P$168)</f>
         <v>0</v>
       </c>
       <c r="Q190" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R190" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S190" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T190" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U190" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="V190" s="80">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="W190" s="80">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X190" s="80">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Y190" s="80">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z190" s="80">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AA190" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB190" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AC190" s="39">
@@ -13044,103 +13462,103 @@
         <v>53</v>
       </c>
       <c r="D191" s="40">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E191" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F191" s="41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G191" s="42">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H191" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I191" s="87">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J191" s="44">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K191" s="101">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L191" s="88">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M191" s="89">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N191" s="90">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O191" s="98">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P191" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q191" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R191" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S191" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T191" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U191" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="V191" s="80">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="W191" s="80">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X191" s="80">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Y191" s="80">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z191" s="80">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AA191" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB191" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AC191" s="39">
@@ -13157,103 +13575,103 @@
         <v>51</v>
       </c>
       <c r="D192" s="40">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>70</v>
       </c>
       <c r="E192" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F192" s="41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G192" s="42">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H192" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I192" s="87">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J192" s="44">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K192" s="101">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L192" s="88">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M192" s="89">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N192" s="90">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O192" s="98">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P192" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q192" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R192" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S192" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T192" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U192" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="V192" s="80">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="W192" s="80">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X192" s="80">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Y192" s="80">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z192" s="80">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AA192" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>70</v>
       </c>
       <c r="AB192" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AC192" s="39">
@@ -13270,103 +13688,103 @@
         <v>56</v>
       </c>
       <c r="D193" s="40">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="E193" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F193" s="41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G193" s="42">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H193" s="43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I193" s="87">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J193" s="44">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>15</v>
       </c>
       <c r="K193" s="101">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L193" s="88">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M193" s="89">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N193" s="90">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O193" s="98">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P193" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q193" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R193" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S193" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T193" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U193" s="46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="V193" s="80">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="W193" s="80">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X193" s="80">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Y193" s="80">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z193" s="80">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>12</v>
       </c>
       <c r="AA193" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="AB193" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AC193" s="39">
@@ -13376,107 +13794,107 @@
     <row r="194" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A194" s="25"/>
       <c r="D194" s="40">
-        <f t="shared" ref="D194:N194" si="22">SUBTOTAL(9,D162:D193)</f>
+        <f t="shared" ref="D194:N194" si="18">SUBTOTAL(9,D162:D193)</f>
         <v>2606</v>
       </c>
       <c r="E194" s="86">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F194" s="41">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>407</v>
       </c>
       <c r="G194" s="42">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>484</v>
       </c>
       <c r="H194" s="43">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>1666</v>
       </c>
       <c r="I194" s="87">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>308</v>
       </c>
       <c r="J194" s="44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>1504</v>
       </c>
       <c r="K194" s="42">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="L194" s="88">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>800</v>
       </c>
       <c r="M194" s="89">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="N194" s="90">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="O194" s="99">
-        <f t="shared" ref="O194:AC194" si="23">SUM(O162:O193)</f>
+        <f t="shared" ref="O194:AC194" si="19">SUM(O162:O193)</f>
         <v>22</v>
       </c>
       <c r="P194" s="46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>44</v>
       </c>
       <c r="Q194" s="46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="R194" s="46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="S194" s="46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="T194" s="46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="U194" s="46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>25</v>
       </c>
       <c r="V194" s="46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W194" s="46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="X194" s="46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Y194" s="46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>187</v>
       </c>
       <c r="Z194" s="46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>199</v>
       </c>
       <c r="AA194" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>8281</v>
       </c>
       <c r="AB194" s="38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>96</v>
       </c>
       <c r="AC194" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>6152.6495199999999</v>
       </c>
     </row>
@@ -36181,11 +36599,30 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AB156" xr:uid="{0840D31B-5840-4E84-8401-1582A00216F9}"/>
+  <dataConsolidate/>
   <mergeCells count="1">
     <mergeCell ref="B162:B182"/>
   </mergeCells>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{62549B77-690D-4F68-8BB4-2C087B16621B}">
+          <x14:formula1>
+            <xm:f>Puntivendita!$M$2:$M$33</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C108 C110:C193</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{773036E2-DBD8-46E5-AF3D-061750D2A52F}">
+          <x14:formula1>
+            <xm:f>Puntivendita!$M$2:$M$33</xm:f>
+          </x14:formula1>
+          <xm:sqref>C109</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -36193,7 +36630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1342C7CE-6C97-4939-8FDB-08E523DE384D}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A14"/>
     </sheetView>
   </sheetViews>
@@ -36696,8 +37133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B16287B-BE6D-4D6F-A3D6-60EFDE11C93B}">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37694,174 +38131,974 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA3FAC6-9F99-4F57-A723-973EE87B9D46}">
-  <dimension ref="A1:A32"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B21"/>
+    <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="176" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="177" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" s="177" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1" s="177" t="s">
+        <v>276</v>
+      </c>
+      <c r="E1" s="177" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1" s="178" t="s">
+        <v>278</v>
+      </c>
+      <c r="G1" s="179" t="s">
+        <v>279</v>
+      </c>
+      <c r="H1" s="177" t="s">
+        <v>280</v>
+      </c>
+      <c r="I1" s="177" t="s">
+        <v>281</v>
+      </c>
+      <c r="J1" s="177" t="s">
+        <v>282</v>
+      </c>
+      <c r="K1" s="177" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="180" t="s">
+        <v>283</v>
+      </c>
+      <c r="M1" s="180" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="161" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="162" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="163" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="164">
+        <v>72100</v>
+      </c>
+      <c r="E2" s="163" t="s">
+        <v>192</v>
+      </c>
+      <c r="F2" s="173" t="s">
+        <v>193</v>
+      </c>
+      <c r="G2" s="167" t="s">
+        <v>194</v>
+      </c>
+      <c r="H2" s="164">
+        <v>1600</v>
+      </c>
+      <c r="I2" s="164">
+        <v>6</v>
+      </c>
+      <c r="J2" s="164" t="s">
+        <v>195</v>
+      </c>
+      <c r="K2" s="165" t="s">
+        <v>196</v>
+      </c>
+      <c r="L2" s="168" t="s">
+        <v>197</v>
+      </c>
+      <c r="M2" s="83" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="161" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="162" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="163" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" s="164">
+        <v>72021</v>
+      </c>
+      <c r="E3" s="163" t="s">
+        <v>200</v>
+      </c>
+      <c r="F3" s="173" t="s">
+        <v>193</v>
+      </c>
+      <c r="G3" s="167" t="s">
+        <v>194</v>
+      </c>
+      <c r="H3" s="164">
+        <v>1500</v>
+      </c>
+      <c r="I3" s="164">
+        <v>8</v>
+      </c>
+      <c r="J3" s="164" t="s">
+        <v>195</v>
+      </c>
+      <c r="K3" s="165" t="s">
+        <v>196</v>
+      </c>
+      <c r="L3" s="163" t="s">
+        <v>201</v>
+      </c>
+      <c r="M3" s="83" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="161" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" s="162" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="163" t="s">
+        <v>204</v>
+      </c>
+      <c r="D4" s="164">
+        <v>72017</v>
+      </c>
+      <c r="E4" s="163" t="s">
+        <v>205</v>
+      </c>
+      <c r="F4" s="173" t="s">
+        <v>193</v>
+      </c>
+      <c r="G4" s="167" t="s">
+        <v>194</v>
+      </c>
+      <c r="H4" s="164">
+        <v>1250</v>
+      </c>
+      <c r="I4" s="164">
+        <v>8</v>
+      </c>
+      <c r="J4" s="164" t="s">
+        <v>195</v>
+      </c>
+      <c r="K4" s="165" t="s">
+        <v>196</v>
+      </c>
+      <c r="L4" s="168" t="s">
+        <v>206</v>
+      </c>
+      <c r="M4" s="85" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="169" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" s="172" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="170" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" s="166">
+        <v>74012</v>
+      </c>
+      <c r="E5" s="170" t="s">
+        <v>209</v>
+      </c>
+      <c r="F5" s="174" t="s">
+        <v>210</v>
+      </c>
+      <c r="G5" s="167" t="s">
+        <v>194</v>
+      </c>
+      <c r="H5" s="166">
+        <v>1000</v>
+      </c>
+      <c r="I5" s="166">
+        <v>6</v>
+      </c>
+      <c r="J5" s="166" t="s">
+        <v>202</v>
+      </c>
+      <c r="K5" s="165" t="s">
+        <v>196</v>
+      </c>
+      <c r="L5" s="171" t="s">
+        <v>211</v>
+      </c>
+      <c r="M5" s="83" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="169" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" s="172" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="163" t="s">
+        <v>213</v>
+      </c>
+      <c r="D6" s="164">
+        <v>74023</v>
+      </c>
+      <c r="E6" s="163" t="s">
+        <v>214</v>
+      </c>
+      <c r="F6" s="173" t="s">
+        <v>210</v>
+      </c>
+      <c r="G6" s="167" t="s">
+        <v>194</v>
+      </c>
+      <c r="H6" s="164">
+        <v>1016</v>
+      </c>
+      <c r="I6" s="164">
+        <v>6</v>
+      </c>
+      <c r="J6" s="164" t="s">
+        <v>202</v>
+      </c>
+      <c r="K6" s="165" t="s">
+        <v>196</v>
+      </c>
+      <c r="L6" s="163" t="s">
+        <v>215</v>
+      </c>
+      <c r="M6" s="83" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="169" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7" s="172" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="170" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7" s="166">
+        <v>74020</v>
+      </c>
+      <c r="E7" s="170" t="s">
+        <v>218</v>
+      </c>
+      <c r="F7" s="174" t="s">
+        <v>210</v>
+      </c>
+      <c r="G7" s="167" t="s">
+        <v>194</v>
+      </c>
+      <c r="H7" s="157">
+        <v>429</v>
+      </c>
+      <c r="I7" s="157">
+        <v>3</v>
+      </c>
+      <c r="J7" s="157" t="s">
+        <v>202</v>
+      </c>
+      <c r="K7" s="165" t="s">
+        <v>196</v>
+      </c>
+      <c r="L7" s="160" t="s">
+        <v>219</v>
+      </c>
+      <c r="M7" s="83" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="161" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" s="172" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="163" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" s="164">
+        <v>74020</v>
+      </c>
+      <c r="E8" s="158" t="s">
+        <v>218</v>
+      </c>
+      <c r="F8" s="173" t="s">
+        <v>210</v>
+      </c>
+      <c r="G8" s="167" t="s">
+        <v>194</v>
+      </c>
+      <c r="H8" s="164">
+        <v>900</v>
+      </c>
+      <c r="I8" s="164">
+        <v>6</v>
+      </c>
+      <c r="J8" s="164" t="s">
+        <v>202</v>
+      </c>
+      <c r="K8" s="165" t="s">
+        <v>196</v>
+      </c>
+      <c r="L8" s="163" t="s">
+        <v>222</v>
+      </c>
+      <c r="M8" s="83" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="169" t="s">
+        <v>223</v>
+      </c>
+      <c r="B9" s="172" t="s">
+        <v>224</v>
+      </c>
+      <c r="C9" s="170" t="s">
+        <v>225</v>
+      </c>
+      <c r="D9" s="166">
+        <v>74024</v>
+      </c>
+      <c r="E9" s="170" t="s">
+        <v>226</v>
+      </c>
+      <c r="F9" s="174" t="s">
+        <v>210</v>
+      </c>
+      <c r="G9" s="167" t="s">
+        <v>194</v>
+      </c>
+      <c r="H9" s="166">
+        <v>1578</v>
+      </c>
+      <c r="I9" s="166">
+        <v>10</v>
+      </c>
+      <c r="J9" s="166" t="s">
+        <v>195</v>
+      </c>
+      <c r="K9" s="165" t="s">
+        <v>196</v>
+      </c>
+      <c r="L9" s="171" t="s">
+        <v>227</v>
+      </c>
+      <c r="M9" s="83" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="161" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" s="172" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" s="163" t="s">
+        <v>229</v>
+      </c>
+      <c r="D10" s="164">
+        <v>74025</v>
+      </c>
+      <c r="E10" s="163" t="s">
+        <v>230</v>
+      </c>
+      <c r="F10" s="173" t="s">
+        <v>210</v>
+      </c>
+      <c r="G10" s="167" t="s">
+        <v>194</v>
+      </c>
+      <c r="H10" s="164">
+        <v>800</v>
+      </c>
+      <c r="I10" s="164">
+        <v>5</v>
+      </c>
+      <c r="J10" s="166" t="s">
+        <v>202</v>
+      </c>
+      <c r="K10" s="165" t="s">
+        <v>196</v>
+      </c>
+      <c r="L10" s="163" t="s">
+        <v>231</v>
+      </c>
+      <c r="M10" s="83" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="159" t="s">
+        <v>232</v>
+      </c>
+      <c r="B11" s="172" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="163" t="s">
+        <v>233</v>
+      </c>
+      <c r="D11" s="164">
+        <v>74015</v>
+      </c>
+      <c r="E11" s="163" t="s">
+        <v>234</v>
+      </c>
+      <c r="F11" s="173" t="s">
+        <v>210</v>
+      </c>
+      <c r="G11" s="167" t="s">
+        <v>194</v>
+      </c>
+      <c r="H11" s="164">
+        <v>750</v>
+      </c>
+      <c r="I11" s="157">
+        <v>4</v>
+      </c>
+      <c r="J11" s="157" t="s">
+        <v>202</v>
+      </c>
+      <c r="K11" s="165" t="s">
+        <v>196</v>
+      </c>
+      <c r="L11" s="160" t="s">
+        <v>235</v>
+      </c>
+      <c r="M11" s="83" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="159" t="s">
+        <v>236</v>
+      </c>
+      <c r="B12" s="172" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" s="158" t="s">
+        <v>237</v>
+      </c>
+      <c r="D12" s="157">
+        <v>74016</v>
+      </c>
+      <c r="E12" s="158" t="s">
+        <v>238</v>
+      </c>
+      <c r="F12" s="175" t="s">
+        <v>210</v>
+      </c>
+      <c r="G12" s="167" t="s">
+        <v>194</v>
+      </c>
+      <c r="H12" s="157">
+        <v>1650</v>
+      </c>
+      <c r="I12" s="157">
+        <v>6</v>
+      </c>
+      <c r="J12" s="157" t="s">
+        <v>202</v>
+      </c>
+      <c r="K12" s="165" t="s">
+        <v>196</v>
+      </c>
+      <c r="L12" s="160" t="s">
+        <v>239</v>
+      </c>
+      <c r="M12" s="83" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="169" t="s">
+        <v>240</v>
+      </c>
+      <c r="B13" s="172" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" s="170" t="s">
+        <v>241</v>
+      </c>
+      <c r="D13" s="166">
+        <v>74017</v>
+      </c>
+      <c r="E13" s="170" t="s">
+        <v>242</v>
+      </c>
+      <c r="F13" s="174" t="s">
+        <v>210</v>
+      </c>
+      <c r="G13" s="167" t="s">
+        <v>194</v>
+      </c>
+      <c r="H13" s="157">
+        <v>1090</v>
+      </c>
+      <c r="I13" s="157">
+        <v>9</v>
+      </c>
+      <c r="J13" s="166" t="s">
+        <v>195</v>
+      </c>
+      <c r="K13" s="165" t="s">
+        <v>196</v>
+      </c>
+      <c r="L13" s="160" t="s">
+        <v>243</v>
+      </c>
+      <c r="M13" s="131" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="159" t="s">
+        <v>244</v>
+      </c>
+      <c r="B14" s="172" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" s="158" t="s">
+        <v>245</v>
+      </c>
+      <c r="D14" s="157">
+        <v>74026</v>
+      </c>
+      <c r="E14" s="158" t="s">
+        <v>246</v>
+      </c>
+      <c r="F14" s="175" t="s">
+        <v>210</v>
+      </c>
+      <c r="G14" s="167" t="s">
+        <v>194</v>
+      </c>
+      <c r="H14" s="157">
+        <v>800</v>
+      </c>
+      <c r="I14" s="157">
+        <v>3</v>
+      </c>
+      <c r="J14" s="157" t="s">
+        <v>202</v>
+      </c>
+      <c r="K14" s="165" t="s">
+        <v>196</v>
+      </c>
+      <c r="L14" s="160" t="s">
+        <v>247</v>
+      </c>
+      <c r="M14" s="83" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="169" t="s">
+        <v>248</v>
+      </c>
+      <c r="B15" s="162" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="171" t="s">
+        <v>249</v>
+      </c>
+      <c r="D15" s="166">
+        <v>74029</v>
+      </c>
+      <c r="E15" s="171" t="s">
+        <v>250</v>
+      </c>
+      <c r="F15" s="174" t="s">
+        <v>210</v>
+      </c>
+      <c r="G15" s="167" t="s">
+        <v>194</v>
+      </c>
+      <c r="H15" s="157">
+        <v>2240</v>
+      </c>
+      <c r="I15" s="157">
+        <v>7</v>
+      </c>
+      <c r="J15" s="164" t="s">
+        <v>195</v>
+      </c>
+      <c r="K15" s="165" t="s">
+        <v>196</v>
+      </c>
+      <c r="L15" s="160" t="s">
+        <v>251</v>
+      </c>
+      <c r="M15" s="84" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="169" t="s">
+        <v>252</v>
+      </c>
+      <c r="B16" s="172" t="s">
+        <v>224</v>
+      </c>
+      <c r="C16" s="171" t="s">
+        <v>253</v>
+      </c>
+      <c r="D16" s="166">
+        <v>74100</v>
+      </c>
+      <c r="E16" s="171" t="s">
+        <v>254</v>
+      </c>
+      <c r="F16" s="174" t="s">
+        <v>210</v>
+      </c>
+      <c r="G16" s="167" t="s">
+        <v>194</v>
+      </c>
+      <c r="H16" s="166">
+        <v>1457</v>
+      </c>
+      <c r="I16" s="166">
+        <v>8</v>
+      </c>
+      <c r="J16" s="164" t="s">
+        <v>195</v>
+      </c>
+      <c r="K16" s="165" t="s">
+        <v>196</v>
+      </c>
+      <c r="L16" s="171" t="s">
+        <v>255</v>
+      </c>
+      <c r="M16" s="84" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="169" t="s">
+        <v>256</v>
+      </c>
+      <c r="B17" s="172" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" s="170" t="s">
+        <v>257</v>
+      </c>
+      <c r="D17" s="166">
+        <v>74100</v>
+      </c>
+      <c r="E17" s="170" t="s">
+        <v>254</v>
+      </c>
+      <c r="F17" s="174" t="s">
+        <v>210</v>
+      </c>
+      <c r="G17" s="167" t="s">
+        <v>194</v>
+      </c>
+      <c r="H17" s="166">
+        <v>700</v>
+      </c>
+      <c r="I17" s="166">
+        <v>6</v>
+      </c>
+      <c r="J17" s="166" t="s">
+        <v>202</v>
+      </c>
+      <c r="K17" s="165" t="s">
+        <v>196</v>
+      </c>
+      <c r="L17" s="171" t="s">
+        <v>258</v>
+      </c>
+      <c r="M17" s="83" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="169" t="s">
+        <v>259</v>
+      </c>
+      <c r="B18" s="172" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18" s="170" t="s">
+        <v>260</v>
+      </c>
+      <c r="D18" s="166">
+        <v>74100</v>
+      </c>
+      <c r="E18" s="170" t="s">
+        <v>254</v>
+      </c>
+      <c r="F18" s="174" t="s">
+        <v>210</v>
+      </c>
+      <c r="G18" s="167" t="s">
+        <v>194</v>
+      </c>
+      <c r="H18" s="157">
+        <v>400</v>
+      </c>
+      <c r="I18" s="157">
+        <v>3</v>
+      </c>
+      <c r="J18" s="157" t="s">
+        <v>202</v>
+      </c>
+      <c r="K18" s="165" t="s">
+        <v>196</v>
+      </c>
+      <c r="L18" s="160" t="s">
+        <v>261</v>
+      </c>
+      <c r="M18" s="83" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="161" t="s">
+        <v>262</v>
+      </c>
+      <c r="B19" s="172" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" s="163" t="s">
+        <v>263</v>
+      </c>
+      <c r="D19" s="164">
+        <v>74100</v>
+      </c>
+      <c r="E19" s="163" t="s">
+        <v>254</v>
+      </c>
+      <c r="F19" s="173" t="s">
+        <v>210</v>
+      </c>
+      <c r="G19" s="167" t="s">
+        <v>194</v>
+      </c>
+      <c r="H19" s="164">
+        <v>600</v>
+      </c>
+      <c r="I19" s="164">
+        <v>4</v>
+      </c>
+      <c r="J19" s="166" t="s">
+        <v>202</v>
+      </c>
+      <c r="K19" s="165" t="s">
+        <v>196</v>
+      </c>
+      <c r="L19" s="163" t="s">
+        <v>264</v>
+      </c>
+      <c r="M19" s="83" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="159" t="s">
+        <v>265</v>
+      </c>
+      <c r="B20" s="172" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20" s="158" t="s">
+        <v>266</v>
+      </c>
+      <c r="D20" s="157">
+        <v>74100</v>
+      </c>
+      <c r="E20" s="158" t="s">
+        <v>254</v>
+      </c>
+      <c r="F20" s="175" t="s">
+        <v>210</v>
+      </c>
+      <c r="G20" s="167" t="s">
+        <v>194</v>
+      </c>
+      <c r="H20" s="157">
+        <v>600</v>
+      </c>
+      <c r="I20" s="157">
+        <v>3</v>
+      </c>
+      <c r="J20" s="157" t="s">
+        <v>202</v>
+      </c>
+      <c r="K20" s="165" t="s">
+        <v>196</v>
+      </c>
+      <c r="L20" s="160" t="s">
+        <v>267</v>
+      </c>
+      <c r="M20" s="83" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="83" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="83" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="83" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="83" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="83" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="83" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="83" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="83" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="84" t="s">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="159" t="s">
+        <v>268</v>
+      </c>
+      <c r="B21" s="172" t="s">
+        <v>190</v>
+      </c>
+      <c r="C21" s="158" t="s">
+        <v>269</v>
+      </c>
+      <c r="D21" s="157">
+        <v>74100</v>
+      </c>
+      <c r="E21" s="158" t="s">
+        <v>254</v>
+      </c>
+      <c r="F21" s="175" t="s">
+        <v>210</v>
+      </c>
+      <c r="G21" s="167" t="s">
+        <v>194</v>
+      </c>
+      <c r="H21" s="157">
+        <v>600</v>
+      </c>
+      <c r="I21" s="157">
+        <v>4</v>
+      </c>
+      <c r="J21" s="157" t="s">
+        <v>202</v>
+      </c>
+      <c r="K21" s="165" t="s">
+        <v>196</v>
+      </c>
+      <c r="L21" s="160" t="s">
+        <v>270</v>
+      </c>
+      <c r="M21" s="84" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="85" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="84" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="159" t="s">
+        <v>271</v>
+      </c>
+      <c r="B22" s="172" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="158" t="s">
+        <v>272</v>
+      </c>
+      <c r="D22" s="157">
+        <v>74100</v>
+      </c>
+      <c r="E22" s="158" t="s">
+        <v>254</v>
+      </c>
+      <c r="F22" s="175" t="s">
+        <v>210</v>
+      </c>
+      <c r="G22" s="167" t="s">
+        <v>194</v>
+      </c>
+      <c r="H22" s="157">
+        <v>500</v>
+      </c>
+      <c r="I22" s="157">
+        <v>4</v>
+      </c>
+      <c r="J22" s="157" t="s">
+        <v>202</v>
+      </c>
+      <c r="K22" s="165" t="s">
+        <v>196</v>
+      </c>
+      <c r="L22" s="160" t="s">
+        <v>273</v>
+      </c>
+      <c r="M22" s="84" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="83" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="83" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="84" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="84" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="83" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="131" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="113" t="s">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M23" s="113" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="82" t="s">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M24" s="82" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="81" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M25" s="81" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="81" t="s">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M26" s="81" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="81" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M27" s="81" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="81" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M28" s="81" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M29" s="19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="81" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M30" s="81" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="81" t="s">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M31" s="81" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="81" t="s">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M32" s="81" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="81" t="s">
+    <row r="33" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M33" s="81" t="s">
         <v>56</v>
       </c>
     </row>
